--- a/Model_Prediction_Dataset.xlsx
+++ b/Model_Prediction_Dataset.xlsx
@@ -942,88 +942,88 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.4966442953020134</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="I2">
-        <v>0.2566371681415929</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="J2">
-        <v>-0.51462816968125</v>
+        <v>-0.2860066942364984</v>
       </c>
       <c r="K2">
-        <v>0.3959418068809661</v>
+        <v>0.3158754563731655</v>
       </c>
       <c r="L2">
-        <v>0.7826810990840966</v>
+        <v>0.766874645490641</v>
       </c>
       <c r="M2">
-        <v>0.6423841059602649</v>
+        <v>0.6379585326953748</v>
       </c>
       <c r="N2">
-        <v>0.5737179487179487</v>
+        <v>0.5872340425531916</v>
       </c>
       <c r="O2">
-        <v>0.7719298245614035</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P2">
-        <v>0.9347145786122801</v>
+        <v>0.9420794429498337</v>
       </c>
       <c r="Q2">
-        <v>0.375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R2">
-        <v>0.4439252336448599</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="S2">
-        <v>0.6363636363636365</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="T2">
-        <v>0.7391304347826088</v>
+        <v>0.7</v>
       </c>
       <c r="U2">
         <v>0.4</v>
       </c>
       <c r="V2">
-        <v>0.4173913043478261</v>
+        <v>0.3901098901098901</v>
       </c>
       <c r="W2">
-        <v>0.4754098360655737</v>
+        <v>0.4648648648648649</v>
       </c>
       <c r="X2">
-        <v>0.4120169958717482</v>
+        <v>0.4463499178848115</v>
       </c>
       <c r="Y2">
-        <v>0.2367692477888247</v>
+        <v>0.2696021563552334</v>
       </c>
       <c r="Z2">
-        <v>0.4919011082693948</v>
+        <v>0.5477223427331888</v>
       </c>
       <c r="AA2">
-        <v>0.2182203389830508</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="AB2">
-        <v>0.5737179487179487</v>
+        <v>0.5872340425531916</v>
       </c>
       <c r="AC2">
-        <v>0.2142857142857143</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="AD2">
-        <v>0.8022765829365731</v>
+        <v>0.8707687440683327</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF2">
-        <v>0.2979242979242979</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="AG2">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="AH2">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="AI2">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ2">
         <v>0.4339622641509434</v>
@@ -1055,88 +1055,88 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.38125</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="I3">
-        <v>0.3769230769230769</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="J3">
-        <v>-0.03190300248813565</v>
+        <v>0.2496278331018333</v>
       </c>
       <c r="K3">
-        <v>0.2237474342071728</v>
+        <v>0.3379874971952675</v>
       </c>
       <c r="L3">
-        <v>0.6569525395503747</v>
+        <v>0.6517300056721498</v>
       </c>
       <c r="M3">
-        <v>0.466887417218543</v>
+        <v>0.5279106858054227</v>
       </c>
       <c r="N3">
-        <v>0.5865384615384616</v>
+        <v>0.5180851063829788</v>
       </c>
       <c r="O3">
-        <v>0.2807017543859649</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P3">
-        <v>0.8697528865868134</v>
+        <v>0.7857255894920082</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R3">
-        <v>0.3224299065420561</v>
+        <v>0.3123123123123123</v>
       </c>
       <c r="S3">
-        <v>0.8181818181818182</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T3">
-        <v>0.7826086956521738</v>
+        <v>0.6</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.4745762711864407</v>
+        <v>0.4587628865979381</v>
       </c>
       <c r="W3">
-        <v>0.366412213740458</v>
+        <v>0.3966480446927375</v>
       </c>
       <c r="X3">
-        <v>-0.02208384018578536</v>
+        <v>0.2351164225991262</v>
       </c>
       <c r="Y3">
-        <v>0.5874518394234493</v>
+        <v>0.6109758643341174</v>
       </c>
       <c r="Z3">
-        <v>0.6888320545609548</v>
+        <v>0.6632321041214752</v>
       </c>
       <c r="AA3">
-        <v>0.3654661016949152</v>
+        <v>0.3601351351351351</v>
       </c>
       <c r="AB3">
-        <v>0.5865384615384616</v>
+        <v>0.5180851063829788</v>
       </c>
       <c r="AC3">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AD3">
-        <v>0.8414600777102829</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AF3">
-        <v>0.4151404151404151</v>
+        <v>0.2623456790123457</v>
       </c>
       <c r="AG3">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH3">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AI3">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ3">
         <v>0.9622641509433962</v>
@@ -1168,85 +1168,85 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.5135135135135135</v>
+        <v>0.4976076555023923</v>
       </c>
       <c r="I4">
-        <v>0.4067796610169492</v>
+        <v>0.3891891891891892</v>
       </c>
       <c r="J4">
-        <v>0.1165539607561088</v>
+        <v>0.1913177161849296</v>
       </c>
       <c r="K4">
-        <v>0.5431465647456477</v>
+        <v>0.6077013684560819</v>
       </c>
       <c r="L4">
-        <v>0.8151540383014155</v>
+        <v>0.8167895632444697</v>
       </c>
       <c r="M4">
-        <v>0.6291390728476821</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N4">
-        <v>0.655448717948718</v>
+        <v>0.5617021276595745</v>
       </c>
       <c r="O4">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P4">
-        <v>0.8138556167044351</v>
+        <v>0.8678588384238012</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R4">
-        <v>0.485981308411215</v>
+        <v>0.5525525525525525</v>
       </c>
       <c r="S4">
-        <v>0.4545454545454546</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T4">
-        <v>0.3913043478260869</v>
+        <v>0.4</v>
       </c>
       <c r="U4">
         <v>0.2</v>
       </c>
       <c r="V4">
-        <v>0.3008130081300813</v>
+        <v>0.3210526315789474</v>
       </c>
       <c r="W4">
-        <v>0.5266666666666666</v>
+        <v>0.5071090047393365</v>
       </c>
       <c r="X4">
-        <v>0.9300744802898149</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.2816323046307623</v>
+        <v>0.263629771231252</v>
       </c>
       <c r="Z4">
-        <v>0.5080988917306053</v>
+        <v>0.5151843817787419</v>
       </c>
       <c r="AA4">
-        <v>0.5116525423728814</v>
+        <v>0.504054054054054</v>
       </c>
       <c r="AB4">
-        <v>0.655448717948718</v>
+        <v>0.5617021276595745</v>
       </c>
       <c r="AC4">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AD4">
-        <v>0.8178186395227931</v>
+        <v>0.8748813666561215</v>
       </c>
       <c r="AE4">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="AF4">
-        <v>0.4395604395604396</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="AG4">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="AH4">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1281,88 +1281,88 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.4833333333333333</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="I5">
-        <v>0.2857142857142857</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="J5">
-        <v>-0.09956176129295448</v>
+        <v>0.005534407171044854</v>
       </c>
       <c r="K5">
-        <v>0.4707282205788663</v>
+        <v>0.5884665590330378</v>
       </c>
       <c r="L5">
-        <v>0.6103247293921732</v>
+        <v>0.6426545660805446</v>
       </c>
       <c r="M5">
-        <v>0.1203090507726269</v>
+        <v>0.1539074960127592</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.4912280701754386</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P5">
-        <v>0.8911190244955217</v>
+        <v>0.9378066149707232</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R5">
-        <v>0.1401869158878505</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="S5">
-        <v>0.5454545454545455</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="T5">
-        <v>0.5652173913043478</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V5">
-        <v>0.4822695035460993</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="W5">
-        <v>0.4081632653061225</v>
+        <v>0.4834123222748815</v>
       </c>
       <c r="X5">
-        <v>0.04082603631208404</v>
+        <v>0.3910964073097086</v>
       </c>
       <c r="Y5">
-        <v>0.6741487201833388</v>
+        <v>0.5244475203232714</v>
       </c>
       <c r="Z5">
-        <v>0.7843137254901962</v>
+        <v>0.6626898047722343</v>
       </c>
       <c r="AA5">
-        <v>0.4491525423728814</v>
+        <v>0.4540540540540541</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.7142857142857143</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="AD5">
-        <v>0.7138400919389263</v>
+        <v>0.7182853527364758</v>
       </c>
       <c r="AE5">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="AF5">
-        <v>0.6153846153846154</v>
+        <v>0.441358024691358</v>
       </c>
       <c r="AG5">
-        <v>0.2727272727272728</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AH5">
-        <v>0.6799999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="AI5">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1394,88 +1394,88 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.4233576642335766</v>
+        <v>0.470873786407767</v>
       </c>
       <c r="I6">
-        <v>0.4087591240875912</v>
+        <v>0.411214953271028</v>
       </c>
       <c r="J6">
-        <v>0.1614298339918436</v>
+        <v>0.200364088982577</v>
       </c>
       <c r="K6">
-        <v>0.2917891602997823</v>
+        <v>0.3888727765642271</v>
       </c>
       <c r="L6">
-        <v>0.7252289758534555</v>
+        <v>0.7498581962563813</v>
       </c>
       <c r="M6">
-        <v>0.5154525386313465</v>
+        <v>0.5661881977671451</v>
       </c>
       <c r="N6">
-        <v>0.6474358974358974</v>
+        <v>0.6510638297872341</v>
       </c>
       <c r="O6">
-        <v>0.4912280701754386</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P6">
-        <v>0.7765188302579044</v>
+        <v>0.8199082133248932</v>
       </c>
       <c r="Q6">
-        <v>0.6250000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R6">
-        <v>0.280373831775701</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="S6">
-        <v>0.3636363636363636</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="T6">
-        <v>0.5217391304347826</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.6028368794326241</v>
+        <v>0.536697247706422</v>
       </c>
       <c r="W6">
-        <v>0.3898305084745763</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="X6">
-        <v>0.4623684807990288</v>
+        <v>0.5951509659916351</v>
       </c>
       <c r="Y6">
-        <v>0.7717039640388772</v>
+        <v>0.5734820426964509</v>
       </c>
       <c r="Z6">
-        <v>0.7971014492753624</v>
+        <v>0.7537960954446855</v>
       </c>
       <c r="AA6">
-        <v>0.6536016949152542</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="AB6">
-        <v>0.6474358974358974</v>
+        <v>0.6510638297872341</v>
       </c>
       <c r="AC6">
-        <v>0.7142857142857143</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AD6">
-        <v>0.8447436107918787</v>
+        <v>0.9082568807339448</v>
       </c>
       <c r="AE6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.7081807081807082</v>
+        <v>0.5864197530864198</v>
       </c>
       <c r="AG6">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="AH6">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AI6">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -1507,88 +1507,88 @@
         <v>0.1153846153846154</v>
       </c>
       <c r="H7">
-        <v>0.4384615384615385</v>
+        <v>0.4048780487804878</v>
       </c>
       <c r="I7">
-        <v>0.4444444444444444</v>
+        <v>0.4530386740331492</v>
       </c>
       <c r="J7">
-        <v>0.410077158980835</v>
+        <v>0.546177466591122</v>
       </c>
       <c r="K7">
-        <v>0.3119332832048334</v>
+        <v>0.3774809560647406</v>
       </c>
       <c r="L7">
-        <v>0.5970024979184013</v>
+        <v>0.6659103800340329</v>
       </c>
       <c r="M7">
-        <v>0.4072847682119206</v>
+        <v>0.5374800637958532</v>
       </c>
       <c r="N7">
-        <v>0.5576923076923077</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="O7">
-        <v>0.4912280701754386</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="P7">
-        <v>0.7070249271608935</v>
+        <v>0.8159518911220129</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R7">
-        <v>0.9439252336448598</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.09090909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="T7">
-        <v>0.3478260869565217</v>
+        <v>0.3</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.4518518518518518</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="W7">
-        <v>0.3650793650793651</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="X7">
-        <v>0.1190382351856543</v>
+        <v>0.3094399085045889</v>
       </c>
       <c r="Y7">
-        <v>0.8939999859175352</v>
+        <v>0.7638689749014513</v>
       </c>
       <c r="Z7">
-        <v>0.8934356351236146</v>
+        <v>0.7537960954446855</v>
       </c>
       <c r="AA7">
-        <v>0.6430084745762712</v>
+        <v>0.5533783783783784</v>
       </c>
       <c r="AB7">
-        <v>0.5576923076923077</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="AD7">
-        <v>0.892245389372298</v>
+        <v>0.8838975007908889</v>
       </c>
       <c r="AE7">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>0.5323565323565324</v>
+        <v>0.4753086419753086</v>
       </c>
       <c r="AG7">
-        <v>0.5454545454545455</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AH7">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="AI7">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ7">
         <v>0.09433962264150944</v>
@@ -1620,88 +1620,88 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.4873949579831933</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="I8">
-        <v>0.472972972972973</v>
+        <v>0.4541484716157205</v>
       </c>
       <c r="J8">
-        <v>0.4123278116524396</v>
+        <v>0.2312330439946398</v>
       </c>
       <c r="K8">
-        <v>0.3118992253968433</v>
+        <v>0.2296314643078181</v>
       </c>
       <c r="L8">
-        <v>0.5720233139050791</v>
+        <v>0.5643788996029496</v>
       </c>
       <c r="M8">
-        <v>0.3763796909492274</v>
+        <v>0.4577352472089314</v>
       </c>
       <c r="N8">
-        <v>0.5544871794871795</v>
+        <v>0.447872340425532</v>
       </c>
       <c r="O8">
-        <v>0.4912280701754386</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P8">
-        <v>0.6321355346929967</v>
+        <v>0.7015350530147175</v>
       </c>
       <c r="Q8">
-        <v>0.375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R8">
-        <v>0.2663551401869159</v>
+        <v>0.2762762762762763</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T8">
-        <v>0.3913043478260869</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V8">
-        <v>0.4565217391304348</v>
+        <v>0.4429223744292237</v>
       </c>
       <c r="W8">
-        <v>0.3984375</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="X8">
-        <v>0.1328458518211415</v>
+        <v>0.117681124335506</v>
       </c>
       <c r="Y8">
-        <v>0.4699646760399794</v>
+        <v>0.2320493346126332</v>
       </c>
       <c r="Z8">
-        <v>0.7766410912190964</v>
+        <v>0.7185466377440348</v>
       </c>
       <c r="AA8">
-        <v>0.5561440677966102</v>
+        <v>0.5655405405405406</v>
       </c>
       <c r="AB8">
-        <v>0.5544871794871795</v>
+        <v>0.447872340425532</v>
       </c>
       <c r="AC8">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="AD8">
+        <v>0.9062005694400506</v>
+      </c>
+      <c r="AE8">
         <v>0.5</v>
       </c>
-      <c r="AD8">
-        <v>0.8200076615771904</v>
-      </c>
-      <c r="AE8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="AF8">
-        <v>0.3663003663003663</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="AG8">
-        <v>0.5454545454545455</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.5199999999999999</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AI8">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AJ8">
         <v>0.6792452830188679</v>
@@ -1733,85 +1733,85 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.4057971014492754</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="I9">
-        <v>0.4202898550724637</v>
+        <v>0.4375</v>
       </c>
       <c r="J9">
-        <v>0.3187972638920872</v>
+        <v>0.604739907462571</v>
       </c>
       <c r="K9">
-        <v>-0.004849117363862579</v>
+        <v>0.1706365570968604</v>
       </c>
       <c r="L9">
-        <v>0.5645295587010825</v>
+        <v>0.5853658536585367</v>
       </c>
       <c r="M9">
-        <v>0.5066225165562914</v>
+        <v>0.5845295055821372</v>
       </c>
       <c r="N9">
-        <v>0.3509615384615384</v>
+        <v>0.3180851063829788</v>
       </c>
       <c r="O9">
-        <v>0.4912280701754386</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P9">
-        <v>0.7143627927052983</v>
+        <v>0.8025003956322202</v>
       </c>
       <c r="Q9">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.588785046728972</v>
+        <v>0.5585585585585585</v>
       </c>
       <c r="S9">
-        <v>0.2727272727272728</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T9">
-        <v>0.6086956521739131</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U9">
         <v>0.4</v>
       </c>
       <c r="V9">
-        <v>0.4755244755244755</v>
+        <v>0.4702970297029703</v>
       </c>
       <c r="W9">
-        <v>0.3818181818181818</v>
+        <v>0.3967391304347826</v>
       </c>
       <c r="X9">
-        <v>0.1868786983774396</v>
+        <v>0.3743125668376179</v>
       </c>
       <c r="Y9">
-        <v>0.4525772117543271</v>
+        <v>0.5689823518485143</v>
       </c>
       <c r="Z9">
-        <v>0.7800511508951407</v>
+        <v>0.7809110629067245</v>
       </c>
       <c r="AA9">
-        <v>0.4438559322033898</v>
+        <v>0.5155405405405405</v>
       </c>
       <c r="AB9">
-        <v>0.3509615384615384</v>
+        <v>0.3180851063829788</v>
       </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="AD9">
-        <v>0.9301154709133694</v>
+        <v>0.9038279025624802</v>
       </c>
       <c r="AE9">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AF9">
-        <v>0.6495726495726496</v>
+        <v>0.6882716049382716</v>
       </c>
       <c r="AG9">
-        <v>0.3636363636363636</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AH9">
-        <v>0.4</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -1846,88 +1846,88 @@
         <v>0.5769230769230769</v>
       </c>
       <c r="H10">
-        <v>0.5039370078740157</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="I10">
-        <v>0.312</v>
+        <v>0.3467336683417085</v>
       </c>
       <c r="J10">
-        <v>0.109833412555776</v>
+        <v>0.2319615787566709</v>
       </c>
       <c r="K10">
-        <v>0.382598607841713</v>
+        <v>0.3765564805743454</v>
       </c>
       <c r="L10">
-        <v>0.626977518734388</v>
+        <v>0.6710153148043109</v>
       </c>
       <c r="M10">
-        <v>0.4746136865342164</v>
+        <v>0.6267942583732058</v>
       </c>
       <c r="N10">
-        <v>0.5176282051282052</v>
+        <v>0.422340425531915</v>
       </c>
       <c r="O10">
-        <v>0.5614035087719298</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P10">
-        <v>0.7903312830473724</v>
+        <v>0.8263965817376167</v>
       </c>
       <c r="Q10">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R10">
-        <v>0.4953271028037384</v>
+        <v>0.4384384384384384</v>
       </c>
       <c r="S10">
-        <v>0.5454545454545455</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="T10">
-        <v>0.7391304347826088</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V10">
-        <v>0.5142857142857142</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="W10">
-        <v>0.2790697674418605</v>
+        <v>0.328125</v>
       </c>
       <c r="X10">
-        <v>-0.05627876658925027</v>
+        <v>0.1134872502339395</v>
       </c>
       <c r="Y10">
-        <v>0.6872094606784255</v>
+        <v>0.5738419496174386</v>
       </c>
       <c r="Z10">
-        <v>0.8397271952259164</v>
+        <v>0.7554229934924078</v>
       </c>
       <c r="AA10">
-        <v>0.646186440677966</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="AB10">
-        <v>0.5176282051282052</v>
+        <v>0.422340425531915</v>
       </c>
       <c r="AC10">
-        <v>0.8571428571428571</v>
+        <v>0.6818181818181819</v>
       </c>
       <c r="AD10">
-        <v>0.7753516116674876</v>
+        <v>0.8829484340398608</v>
       </c>
       <c r="AE10">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="AF10">
-        <v>0.3956043956043956</v>
+        <v>0.4506172839506173</v>
       </c>
       <c r="AG10">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AH10">
-        <v>0.7999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ10">
         <v>0.5094339622641509</v>
@@ -1959,88 +1959,88 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.4507042253521127</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="I11">
-        <v>0.3254437869822485</v>
+        <v>0.337962962962963</v>
       </c>
       <c r="J11">
-        <v>0.0225065306539808</v>
+        <v>0.07773282916870378</v>
       </c>
       <c r="K11">
-        <v>0.1238912264482689</v>
+        <v>0.07785873553900281</v>
       </c>
       <c r="L11">
-        <v>0.6538301415487094</v>
+        <v>0.550482132728304</v>
       </c>
       <c r="M11">
-        <v>0.4850993377483444</v>
+        <v>0.4312200956937799</v>
       </c>
       <c r="N11">
-        <v>0.5540865384615384</v>
+        <v>0.4571808510638298</v>
       </c>
       <c r="O11">
-        <v>0.3157894736842105</v>
+        <v>0.25</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.9885662288336762</v>
       </c>
       <c r="Q11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R11">
+        <v>0.2477477477477477</v>
+      </c>
+      <c r="S11">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="T11">
+        <v>0.675</v>
+      </c>
+      <c r="U11">
         <v>0.75</v>
       </c>
-      <c r="R11">
-        <v>0.3329439252336449</v>
-      </c>
-      <c r="S11">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="T11">
-        <v>0.7173913043478261</v>
-      </c>
-      <c r="U11">
-        <v>0.6</v>
-      </c>
       <c r="V11">
-        <v>0.3474576271186441</v>
+        <v>0.3575757575757576</v>
       </c>
       <c r="W11">
-        <v>0.3495934959349594</v>
+        <v>0.3489583333333333</v>
       </c>
       <c r="X11">
-        <v>-0.1589928878867038</v>
+        <v>-0.129811386894305</v>
       </c>
       <c r="Y11">
-        <v>0.07795673650568145</v>
+        <v>0.1135920061867001</v>
       </c>
       <c r="Z11">
-        <v>0.4603580562659846</v>
+        <v>0.4398047722342733</v>
       </c>
       <c r="AA11">
-        <v>0.3379237288135593</v>
+        <v>0.372972972972973</v>
       </c>
       <c r="AB11">
-        <v>0.7387820512820512</v>
+        <v>0.6095744680851064</v>
       </c>
       <c r="AC11">
-        <v>0.2857142857142857</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="AD11">
-        <v>0.776446122694686</v>
+        <v>0.7900980702309395</v>
       </c>
       <c r="AE11">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="AF11">
-        <v>0.5128205128205128</v>
+        <v>0.478395061728395</v>
       </c>
       <c r="AG11">
-        <v>0.5454545454545455</v>
+        <v>0.4</v>
       </c>
       <c r="AH11">
-        <v>0.5599999999999999</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AI11">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ11">
         <v>0.6226415094339622</v>
@@ -2072,88 +2072,88 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="H12">
-        <v>0.4462809917355372</v>
+        <v>0.391812865497076</v>
       </c>
       <c r="I12">
-        <v>0.3821138211382114</v>
+        <v>0.4522613065326633</v>
       </c>
       <c r="J12">
-        <v>0.1065009239242469</v>
+        <v>0.5596233957898864</v>
       </c>
       <c r="K12">
-        <v>0.4135518591801804</v>
+        <v>0.2916565907563779</v>
       </c>
       <c r="L12">
-        <v>0.6927560366361365</v>
+        <v>0.5859330686330119</v>
       </c>
       <c r="M12">
-        <v>0.4293598233995585</v>
+        <v>0.3955342902711324</v>
       </c>
       <c r="N12">
-        <v>0.7099358974358974</v>
+        <v>0.5712765957446809</v>
       </c>
       <c r="O12">
-        <v>0.7017543859649124</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P12">
-        <v>0.7596849034207402</v>
+        <v>0.759772115841114</v>
       </c>
       <c r="Q12">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R12">
-        <v>0.4906542056074767</v>
+        <v>0.4354354354354354</v>
       </c>
       <c r="S12">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T12">
-        <v>0.5217391304347826</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="U12">
         <v>0.7999999999999999</v>
       </c>
       <c r="V12">
-        <v>0.5172413793103449</v>
+        <v>0.5339366515837104</v>
       </c>
       <c r="W12">
-        <v>0.4032258064516129</v>
+        <v>0.3620689655172414</v>
       </c>
       <c r="X12">
-        <v>0.6523149407258964</v>
+        <v>0.4869656699925884</v>
       </c>
       <c r="Y12">
-        <v>0.8652999968706597</v>
+        <v>0.949733485903751</v>
       </c>
       <c r="Z12">
-        <v>0.9224211423699915</v>
+        <v>0.8736442516268981</v>
       </c>
       <c r="AA12">
-        <v>0.7065677966101694</v>
+        <v>0.697972972972973</v>
       </c>
       <c r="AB12">
-        <v>0.7099358974358974</v>
+        <v>0.5712765957446809</v>
       </c>
       <c r="AC12">
-        <v>0.9285714285714285</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="AD12">
-        <v>0.7591528484649482</v>
+        <v>0.915374881366656</v>
       </c>
       <c r="AE12">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>0.2442002442002442</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="AG12">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH12">
-        <v>0.36</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="AI12">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ12">
         <v>0.4905660377358491</v>
@@ -2185,88 +2185,88 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.4060150375939849</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="I13">
-        <v>0.3982300884955752</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="J13">
-        <v>0.07281552870491519</v>
+        <v>0.3023929324926343</v>
       </c>
       <c r="K13">
-        <v>0.2813641786293138</v>
+        <v>0.2261614053369834</v>
       </c>
       <c r="L13">
-        <v>0.592006661115737</v>
+        <v>0.6057855927396484</v>
       </c>
       <c r="M13">
-        <v>0.4701986754966888</v>
+        <v>0.5781499202551834</v>
       </c>
       <c r="N13">
-        <v>0.4567307692307692</v>
+        <v>0.3648936170212766</v>
       </c>
       <c r="O13">
-        <v>0.3508771929824562</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="P13">
-        <v>0.840401424409194</v>
+        <v>0.9124861528722898</v>
       </c>
       <c r="Q13">
-        <v>0.125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R13">
-        <v>0.6308411214953271</v>
+        <v>0.4654654654654655</v>
       </c>
       <c r="S13">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T13">
-        <v>0.5217391304347826</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U13">
+        <v>0.6</v>
+      </c>
+      <c r="V13">
+        <v>0.5703125</v>
+      </c>
+      <c r="W13">
+        <v>0.3539823008849557</v>
+      </c>
+      <c r="X13">
+        <v>-0.006755883380816244</v>
+      </c>
+      <c r="Y13">
+        <v>0.597205540643011</v>
+      </c>
+      <c r="Z13">
+        <v>0.8286334056399133</v>
+      </c>
+      <c r="AA13">
+        <v>0.5614864864864865</v>
+      </c>
+      <c r="AB13">
+        <v>0.3648936170212766</v>
+      </c>
+      <c r="AC13">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="AD13">
+        <v>0.8084466940841506</v>
+      </c>
+      <c r="AE13">
         <v>0.4</v>
       </c>
-      <c r="V13">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="W13">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="X13">
-        <v>-0.06995115026722611</v>
-      </c>
-      <c r="Y13">
-        <v>0.6061895714540587</v>
-      </c>
-      <c r="Z13">
-        <v>0.9923273657289002</v>
-      </c>
-      <c r="AA13">
-        <v>0.6281779661016949</v>
-      </c>
-      <c r="AB13">
-        <v>0.4567307692307692</v>
-      </c>
-      <c r="AC13">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AD13">
-        <v>0.8014009741148141</v>
-      </c>
-      <c r="AE13">
-        <v>0.5</v>
-      </c>
       <c r="AF13">
-        <v>0.503052503052503</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="AG13">
-        <v>0.1818181818181818</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AH13">
-        <v>0.28</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="AI13">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ13">
         <v>0.3396226415094339</v>
@@ -2298,88 +2298,88 @@
         <v>0.2692307692307692</v>
       </c>
       <c r="H14">
-        <v>0.543859649122807</v>
+        <v>0.4751381215469613</v>
       </c>
       <c r="I14">
-        <v>0.4903225806451613</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="J14">
-        <v>0.6731850300958506</v>
+        <v>0.6762174507038173</v>
       </c>
       <c r="K14">
-        <v>0.4019146606035919</v>
+        <v>0.310719910656139</v>
       </c>
       <c r="L14">
-        <v>0.5953372189841799</v>
+        <v>0.577424844015882</v>
       </c>
       <c r="M14">
-        <v>0.455849889624724</v>
+        <v>0.5</v>
       </c>
       <c r="N14">
-        <v>0.483974358974359</v>
+        <v>0.4159574468085107</v>
       </c>
       <c r="O14">
-        <v>0.4210526315789473</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P14">
-        <v>0.6526383943023633</v>
+        <v>0.7287545497705332</v>
       </c>
       <c r="Q14">
-        <v>0.375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R14">
-        <v>0.7383177570093458</v>
+        <v>0.6156156156156156</v>
       </c>
       <c r="S14">
-        <v>0.2727272727272728</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T14">
-        <v>0.4347826086956522</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="U14">
         <v>0.4</v>
       </c>
       <c r="V14">
-        <v>0.5888888888888889</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.2710280373831775</v>
       </c>
       <c r="X14">
-        <v>-0.1947961728349237</v>
+        <v>-0.09592422570616604</v>
       </c>
       <c r="Y14">
-        <v>0.5130944909134673</v>
+        <v>0.4376606167913674</v>
       </c>
       <c r="Z14">
-        <v>0.8687127024722933</v>
+        <v>0.7603036876355749</v>
       </c>
       <c r="AA14">
-        <v>0.5911016949152542</v>
+        <v>0.525</v>
       </c>
       <c r="AB14">
-        <v>0.483974358974359</v>
+        <v>0.4159574468085107</v>
       </c>
       <c r="AC14">
-        <v>0.9285714285714285</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AD14">
-        <v>0.9338368084058447</v>
+        <v>0.9772223979753243</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.2930402930402931</v>
+        <v>0.4012345679012346</v>
       </c>
       <c r="AG14">
-        <v>0.6363636363636365</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AH14">
-        <v>0.5199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="AI14">
-        <v>0.1428571428571428</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ14">
         <v>0.3207547169811321</v>
@@ -2411,88 +2411,88 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.39</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="I15">
-        <v>0.4405594405594406</v>
+        <v>0.4232558139534884</v>
       </c>
       <c r="J15">
-        <v>0.3460683465394613</v>
+        <v>0.4805536545652301</v>
       </c>
       <c r="K15">
-        <v>0.09974336953459445</v>
+        <v>0.112847930580571</v>
       </c>
       <c r="L15">
-        <v>0.3638634471273938</v>
+        <v>0.4600113442994895</v>
       </c>
       <c r="M15">
-        <v>0.271523178807947</v>
+        <v>0.3213716108452951</v>
       </c>
       <c r="N15">
-        <v>0.3060897435897436</v>
+        <v>0.4340425531914894</v>
       </c>
       <c r="O15">
-        <v>0.2807017543859649</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P15">
-        <v>0.6502643789791734</v>
+        <v>0.7285962968824181</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R15">
-        <v>0.7196261682242991</v>
+        <v>0.7627627627627628</v>
       </c>
       <c r="S15">
-        <v>0.4545454545454546</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T15">
-        <v>0.4782608695652174</v>
+        <v>0.7</v>
       </c>
       <c r="U15">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="V15">
-        <v>0.3869047619047619</v>
+        <v>0.3875</v>
       </c>
       <c r="W15">
-        <v>0.515625</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="X15">
-        <v>0.7105845080250321</v>
+        <v>0.5652323409906055</v>
       </c>
       <c r="Y15">
-        <v>0.1223307918591159</v>
+        <v>0.1946947197248603</v>
       </c>
       <c r="Z15">
-        <v>0.6368286445012787</v>
+        <v>0.5881236442516269</v>
       </c>
       <c r="AA15">
-        <v>0.4743114406779661</v>
+        <v>0.4677364864864865</v>
       </c>
       <c r="AB15">
-        <v>0.2295673076923077</v>
+        <v>0.325531914893617</v>
       </c>
       <c r="AC15">
-        <v>0.4821428571428571</v>
+        <v>0.375</v>
       </c>
       <c r="AD15">
-        <v>0.853882777868987</v>
+        <v>0.8473979753242644</v>
       </c>
       <c r="AE15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF15">
-        <v>0.8205128205128205</v>
+        <v>0.7060185185185185</v>
       </c>
       <c r="AG15">
-        <v>0.4090909090909091</v>
+        <v>0.45</v>
       </c>
       <c r="AH15">
-        <v>0.42</v>
+        <v>0.475</v>
       </c>
       <c r="AI15">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ15">
         <v>0.2452830188679245</v>
@@ -2524,88 +2524,88 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.5469613259668509</v>
+        <v>0.5427350427350427</v>
       </c>
       <c r="I16">
-        <v>0.3052631578947368</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="J16">
-        <v>-0.1068740204519254</v>
+        <v>-0.004796538122054171</v>
       </c>
       <c r="K16">
-        <v>0.8901293976680046</v>
+        <v>0.8199022991595519</v>
       </c>
       <c r="L16">
-        <v>0.9098667776852624</v>
+        <v>0.8657118547929666</v>
       </c>
       <c r="M16">
-        <v>0.7243377483443708</v>
+        <v>0.7278708133971292</v>
       </c>
       <c r="N16">
-        <v>0.6995192307692307</v>
+        <v>0.6526595744680851</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P16">
-        <v>0.9069278083522175</v>
+        <v>0.8825763570185156</v>
       </c>
       <c r="Q16">
-        <v>0.1875</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R16">
-        <v>0.4485981308411215</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="S16">
-        <v>0.2727272727272728</v>
+        <v>0.3461538461538462</v>
       </c>
       <c r="T16">
-        <v>0.4239130434782609</v>
+        <v>0.425</v>
       </c>
       <c r="U16">
         <v>0.75</v>
       </c>
       <c r="V16">
-        <v>0.3636363636363636</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="W16">
-        <v>0.4251968503937008</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="X16">
-        <v>0.7095140429756799</v>
+        <v>0.8966917524129078</v>
       </c>
       <c r="Y16">
-        <v>0.1946446304487623</v>
+        <v>0.2182740161964114</v>
       </c>
       <c r="Z16">
-        <v>0.5618073316283034</v>
+        <v>0.502711496746204</v>
       </c>
       <c r="AA16">
-        <v>0.3177966101694915</v>
+        <v>0.2952702702702703</v>
       </c>
       <c r="AB16">
-        <v>0.9326923076923077</v>
+        <v>0.8702127659574469</v>
       </c>
       <c r="AC16">
-        <v>0.5</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AD16">
-        <v>0.8701362666228862</v>
+        <v>0.9082568807339448</v>
       </c>
       <c r="AE16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AF16">
-        <v>0.6886446886446886</v>
+        <v>0.4969135802469136</v>
       </c>
       <c r="AG16">
-        <v>0.2727272727272728</v>
+        <v>0.2</v>
       </c>
       <c r="AH16">
         <v>0.4</v>
       </c>
       <c r="AI16">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ16">
         <v>0.6037735849056604</v>
@@ -2637,88 +2637,88 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H17">
-        <v>0.3485714285714286</v>
+        <v>0.3185483870967742</v>
       </c>
       <c r="I17">
-        <v>0.3380281690140845</v>
+        <v>0.3526570048309179</v>
       </c>
       <c r="J17">
-        <v>0.5726201387316694</v>
+        <v>0.518935186836783</v>
       </c>
       <c r="K17">
-        <v>0.1563044830641139</v>
+        <v>0.03367225883461047</v>
       </c>
       <c r="L17">
-        <v>0.7343880099916736</v>
+        <v>0.6500283607487238</v>
       </c>
       <c r="M17">
-        <v>0.4415011037527594</v>
+        <v>0.3883572567783095</v>
       </c>
       <c r="N17">
-        <v>0.7724358974358974</v>
+        <v>0.701063829787234</v>
       </c>
       <c r="O17">
-        <v>0.5614035087719298</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P17">
-        <v>0.7601165425704112</v>
+        <v>0.8458616869757872</v>
       </c>
       <c r="Q17">
-        <v>0.375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0.7627627627627628</v>
       </c>
       <c r="S17">
-        <v>0.3636363636363636</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="T17">
-        <v>0.7391304347826088</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="U17">
         <v>0.6</v>
       </c>
       <c r="V17">
-        <v>0.4603174603174603</v>
+        <v>0.4345549738219895</v>
       </c>
       <c r="W17">
-        <v>0.3676470588235294</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="X17">
-        <v>0.3574881092818676</v>
+        <v>0.1606838606506142</v>
       </c>
       <c r="Y17">
-        <v>0.6611843399848841</v>
+        <v>0.4808971595960587</v>
       </c>
       <c r="Z17">
-        <v>0.6760443307757885</v>
+        <v>0.5981561822125814</v>
       </c>
       <c r="AA17">
-        <v>0.5095338983050848</v>
+        <v>0.3972972972972973</v>
       </c>
       <c r="AB17">
-        <v>0.7724358974358974</v>
+        <v>0.701063829787234</v>
       </c>
       <c r="AC17">
-        <v>0.7142857142857143</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AD17">
-        <v>0.7425162808515297</v>
+        <v>0.817146472635242</v>
       </c>
       <c r="AE17">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="AF17">
-        <v>0.5323565323565324</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AG17">
-        <v>0.2727272727272728</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH17">
-        <v>0.36</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="AI17">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ17">
         <v>0.7924528301886793</v>
@@ -2750,88 +2750,88 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.584</v>
+        <v>0.5561497326203209</v>
       </c>
       <c r="I18">
-        <v>0.3414634146341464</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="J18">
-        <v>-0.2200812581331717</v>
+        <v>-0.2239759715839342</v>
       </c>
       <c r="K18">
-        <v>0.7484096138466836</v>
+        <v>0.7177123300716676</v>
       </c>
       <c r="L18">
-        <v>0.768526228143214</v>
+        <v>0.792966534316506</v>
       </c>
       <c r="M18">
-        <v>0.5044150110375276</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="N18">
-        <v>0.7467948717948718</v>
+        <v>0.698936170212766</v>
       </c>
       <c r="O18">
-        <v>0.9122807017543859</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="P18">
-        <v>0.8242149562965361</v>
+        <v>0.8574141478081975</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R18">
-        <v>0.514018691588785</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="S18">
-        <v>0.5454545454545455</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="T18">
-        <v>0.7391304347826088</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="U18">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="V18">
-        <v>0.4293193717277487</v>
+        <v>0.4296875</v>
       </c>
       <c r="W18">
-        <v>0.4669603524229075</v>
+        <v>0.4740484429065744</v>
       </c>
       <c r="X18">
-        <v>0.4817495629662844</v>
+        <v>0.5600892061638199</v>
       </c>
       <c r="Y18">
-        <v>0.2844069159108504</v>
+        <v>0.1686311324938017</v>
       </c>
       <c r="Z18">
-        <v>0.6182864450127877</v>
+        <v>0.5254880694143167</v>
       </c>
       <c r="AA18">
-        <v>0.3551377118644067</v>
+        <v>0.3552364864864865</v>
       </c>
       <c r="AB18">
-        <v>0.5600961538461539</v>
+        <v>0.5242021276595745</v>
       </c>
       <c r="AC18">
-        <v>0.375</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="AD18">
-        <v>0.9533738302413397</v>
+        <v>0.9262891490034798</v>
       </c>
       <c r="AE18">
-        <v>0.875</v>
+        <v>0.6</v>
       </c>
       <c r="AF18">
-        <v>0.8608058608058609</v>
+        <v>0.5254629629629629</v>
       </c>
       <c r="AG18">
-        <v>0.4090909090909091</v>
+        <v>0.35</v>
       </c>
       <c r="AH18">
-        <v>0.36</v>
+        <v>0.425</v>
       </c>
       <c r="AI18">
-        <v>0.6428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="AJ18">
         <v>0.7358490566037735</v>
@@ -2863,88 +2863,88 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.4666666666666667</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="I19">
-        <v>0.4930555555555556</v>
+        <v>0.4595959595959596</v>
       </c>
       <c r="J19">
-        <v>0.6966153279580357</v>
+        <v>0.7098506348061663</v>
       </c>
       <c r="K19">
-        <v>0.6560435146097705</v>
+        <v>0.7274148035289032</v>
       </c>
       <c r="L19">
-        <v>0.7393838467943381</v>
+        <v>0.7600680657969371</v>
       </c>
       <c r="M19">
-        <v>0.5728476821192053</v>
+        <v>0.6084529505582137</v>
       </c>
       <c r="N19">
-        <v>0.5913461538461539</v>
+        <v>0.6138297872340426</v>
       </c>
       <c r="O19">
-        <v>0.7017543859649124</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="P19">
-        <v>0.8462285529297507</v>
+        <v>0.8789365405918657</v>
       </c>
       <c r="Q19">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R19">
-        <v>0.4205607476635514</v>
+        <v>0.3453453453453454</v>
       </c>
       <c r="S19">
-        <v>0.1818181818181818</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T19">
-        <v>0.3478260869565217</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="U19">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V19">
-        <v>0.3658536585365854</v>
+        <v>0.3672316384180791</v>
       </c>
       <c r="W19">
-        <v>0.392</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="X19">
-        <v>0.7594136153963591</v>
+        <v>0.9325043772223348</v>
       </c>
       <c r="Y19">
-        <v>-0.01084892556850476</v>
+        <v>0.09401541911641055</v>
       </c>
       <c r="Z19">
-        <v>0.4296675191815857</v>
+        <v>0.4116052060737527</v>
       </c>
       <c r="AA19">
-        <v>0.2701271186440678</v>
+        <v>0.2810810810810811</v>
       </c>
       <c r="AB19">
-        <v>0.5913461538461539</v>
+        <v>0.6138297872340426</v>
       </c>
       <c r="AC19">
-        <v>0.07142857142857142</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="AD19">
-        <v>0.7418595742352104</v>
+        <v>0.7820310028472002</v>
       </c>
       <c r="AE19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF19">
-        <v>0.9768009768009769</v>
+        <v>0.8641975308641975</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AH19">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ19">
         <v>0.01886792452830189</v>
@@ -2979,85 +2979,85 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="I20">
-        <v>0.375</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="J20">
-        <v>-0.01611046466622928</v>
+        <v>0.1183120924957444</v>
       </c>
       <c r="K20">
-        <v>0.3498715297198653</v>
+        <v>0.3719596448026734</v>
       </c>
       <c r="L20">
-        <v>0.6136552872606161</v>
+        <v>0.5876347135564379</v>
       </c>
       <c r="M20">
-        <v>0.3984547461368653</v>
+        <v>0.3245614035087719</v>
       </c>
       <c r="N20">
-        <v>0.6025641025641025</v>
+        <v>0.6691489361702128</v>
       </c>
       <c r="O20">
-        <v>0.4912280701754386</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P20">
-        <v>0.9442106399050393</v>
+        <v>0.927836683019465</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R20">
-        <v>0.3551401869158878</v>
+        <v>0.3003003003003003</v>
       </c>
       <c r="S20">
-        <v>0.5454545454545455</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T20">
-        <v>0.4347826086956522</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U20">
-        <v>0.7999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0.3383458646616541</v>
+        <v>0.3842364532019704</v>
       </c>
       <c r="W20">
-        <v>0.4027777777777778</v>
+        <v>0.40625</v>
       </c>
       <c r="X20">
-        <v>0.3795925616966708</v>
+        <v>0.4569047491187443</v>
       </c>
       <c r="Y20">
-        <v>0.08792019392625983</v>
+        <v>0.1612797115943063</v>
       </c>
       <c r="Z20">
-        <v>0.5575447570332481</v>
+        <v>0.5276572668112798</v>
       </c>
       <c r="AA20">
-        <v>0.5656779661016949</v>
+        <v>0.4891891891891892</v>
       </c>
       <c r="AB20">
-        <v>0.6025641025641025</v>
+        <v>0.6691489361702128</v>
       </c>
       <c r="AC20">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AD20">
-        <v>0.7309144639632245</v>
+        <v>0.8305915849414741</v>
       </c>
       <c r="AE20">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="AF20">
-        <v>0.3125763125763126</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="AG20">
-        <v>0.6363636363636365</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH20">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="AI20">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ20">
         <v>0.7735849056603774</v>
@@ -3089,88 +3089,88 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.3247863247863248</v>
+        <v>0.3756906077348066</v>
       </c>
       <c r="I21">
-        <v>0.3809523809523809</v>
+        <v>0.3517587939698493</v>
       </c>
       <c r="J21">
-        <v>-0.004560648583399752</v>
+        <v>0.058432033799604</v>
       </c>
       <c r="K21">
-        <v>0.07046901245346404</v>
+        <v>0.1294252534347416</v>
       </c>
       <c r="L21">
-        <v>0.4321398834304746</v>
+        <v>0.5138967668746455</v>
       </c>
       <c r="M21">
-        <v>0.3520971302428256</v>
+        <v>0.3604465709728867</v>
       </c>
       <c r="N21">
-        <v>0.3205128205128205</v>
+        <v>0.4829787234042554</v>
       </c>
       <c r="O21">
-        <v>0.2807017543859649</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P21">
-        <v>0.7601165425704112</v>
+        <v>0.879094793479981</v>
       </c>
       <c r="Q21">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R21">
-        <v>0.2336448598130841</v>
+        <v>0.1651651651651652</v>
       </c>
       <c r="S21">
-        <v>0.09090909090909091</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="T21">
-        <v>0.3913043478260869</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="U21">
         <v>0.4</v>
       </c>
       <c r="V21">
-        <v>0.4354838709677419</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="W21">
-        <v>0.3424657534246575</v>
+        <v>0.4014598540145985</v>
       </c>
       <c r="X21">
-        <v>0.3609626538000307</v>
+        <v>0.3746417883430558</v>
       </c>
       <c r="Y21">
-        <v>0.2250783174514019</v>
+        <v>0.2004142757656561</v>
       </c>
       <c r="Z21">
-        <v>0.7050298380221655</v>
+        <v>0.577006507592191</v>
       </c>
       <c r="AA21">
-        <v>0.4141949152542373</v>
+        <v>0.3466216216216216</v>
       </c>
       <c r="AB21">
-        <v>0.3205128205128205</v>
+        <v>0.4829787234042554</v>
       </c>
       <c r="AC21">
-        <v>0.4285714285714285</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="AD21">
-        <v>0.9066929349313195</v>
+        <v>0.8982916798481493</v>
       </c>
       <c r="AE21">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="AF21">
-        <v>0.63003663003663</v>
+        <v>0.595679012345679</v>
       </c>
       <c r="AG21">
-        <v>0.4545454545454546</v>
+        <v>0.6</v>
       </c>
       <c r="AH21">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ21">
         <v>0.3584905660377358</v>
@@ -3202,88 +3202,88 @@
         <v>0.7307692307692307</v>
       </c>
       <c r="H22">
+        <v>0.4593301435406699</v>
+      </c>
+      <c r="I22">
+        <v>0.5233160621761658</v>
+      </c>
+      <c r="J22">
+        <v>0.9884135737112363</v>
+      </c>
+      <c r="K22">
+        <v>0.2613224416197775</v>
+      </c>
+      <c r="L22">
+        <v>0.6392512762336926</v>
+      </c>
+      <c r="M22">
+        <v>0.4976076555023923</v>
+      </c>
+      <c r="N22">
+        <v>0.5351063829787234</v>
+      </c>
+      <c r="O22">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P22">
+        <v>0.8401645830036398</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0.4264264264264265</v>
+      </c>
+      <c r="S22">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="T22">
         <v>0.5</v>
       </c>
-      <c r="I22">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="J22">
-        <v>0.5382336322260848</v>
-      </c>
-      <c r="K22">
-        <v>0.3872521895054212</v>
-      </c>
-      <c r="L22">
-        <v>0.6952539550374688</v>
-      </c>
-      <c r="M22">
-        <v>0.4492273730684326</v>
-      </c>
-      <c r="N22">
-        <v>0.6858974358974359</v>
-      </c>
-      <c r="O22">
-        <v>0.4912280701754386</v>
-      </c>
-      <c r="P22">
-        <v>0.7378871263623611</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>0.5093457943925235</v>
-      </c>
-      <c r="S22">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="T22">
-        <v>0.6521739130434783</v>
-      </c>
       <c r="U22">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V22">
-        <v>0.584070796460177</v>
+        <v>0.5738636363636364</v>
       </c>
       <c r="W22">
-        <v>0.2828282828282828</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="X22">
-        <v>-0.03696182167185618</v>
+        <v>-0.03410757043952184</v>
       </c>
       <c r="Y22">
-        <v>0.8420511152482297</v>
+        <v>0.9882030831813344</v>
       </c>
       <c r="Z22">
-        <v>0.8584825234441603</v>
+        <v>0.8693058568329719</v>
       </c>
       <c r="AA22">
-        <v>0.6334745762711864</v>
+        <v>0.7256756756756757</v>
       </c>
       <c r="AB22">
-        <v>0.6858974358974359</v>
+        <v>0.5351063829787234</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.8484649482843539</v>
+        <v>0.8666561214805441</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF22">
-        <v>0.7472527472527473</v>
+        <v>0.6728395061728395</v>
       </c>
       <c r="AG22">
-        <v>0.1818181818181818</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH22">
-        <v>0.4399999999999999</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AI22">
-        <v>0.1428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AJ22">
         <v>0.9056603773584906</v>
@@ -3315,88 +3315,88 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0.5297297297297298</v>
       </c>
       <c r="I23">
-        <v>0.4393939393939394</v>
+        <v>0.4378109452736318</v>
       </c>
       <c r="J23">
-        <v>0.1352100509126596</v>
+        <v>0.1258347366657521</v>
       </c>
       <c r="K23">
-        <v>0.6064956664161798</v>
+        <v>0.6516893674876466</v>
       </c>
       <c r="L23">
-        <v>0.7402164862614488</v>
+        <v>0.7816222348269994</v>
       </c>
       <c r="M23">
-        <v>0.4735099337748344</v>
+        <v>0.5167464114832536</v>
       </c>
       <c r="N23">
-        <v>0.7371794871794872</v>
+        <v>0.7765957446808511</v>
       </c>
       <c r="O23">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P23">
-        <v>0.7657278515161325</v>
+        <v>0.8430131349897135</v>
       </c>
       <c r="Q23">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R23">
-        <v>0.3271028037383177</v>
+        <v>0.2552552552552552</v>
       </c>
       <c r="S23">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T23">
-        <v>0.3478260869565217</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="U23">
         <v>0.6</v>
       </c>
       <c r="V23">
-        <v>0.4628099173553719</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="W23">
-        <v>0.3695652173913043</v>
+        <v>0.4365482233502538</v>
       </c>
       <c r="X23">
-        <v>0.2201953973139905</v>
+        <v>0.4810967277292347</v>
       </c>
       <c r="Y23">
-        <v>0.2619136838552132</v>
+        <v>0.1877007370660663</v>
       </c>
       <c r="Z23">
-        <v>0.5046888320545609</v>
+        <v>0.4658351409978308</v>
       </c>
       <c r="AA23">
-        <v>0.4194915254237288</v>
+        <v>0.3777027027027027</v>
       </c>
       <c r="AB23">
-        <v>0.7371794871794872</v>
+        <v>0.7765957446808511</v>
       </c>
       <c r="AC23">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AD23">
-        <v>0.6661194111530674</v>
+        <v>0.7556153116102499</v>
       </c>
       <c r="AE23">
+        <v>0.3</v>
+      </c>
+      <c r="AF23">
+        <v>0.2191358024691358</v>
+      </c>
+      <c r="AG23">
+        <v>0.4</v>
+      </c>
+      <c r="AH23">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AI23">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="AF23">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="AG23">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="AH23">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="AI23">
-        <v>0.4285714285714285</v>
       </c>
       <c r="AJ23">
         <v>0.2264150943396226</v>
@@ -3428,88 +3428,88 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.3688524590163935</v>
+        <v>0.3526315789473684</v>
       </c>
       <c r="I24">
-        <v>0.4893617021276596</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="J24">
-        <v>0.4386713741801104</v>
+        <v>0.5549861918563553</v>
       </c>
       <c r="K24">
-        <v>0.1865226859124736</v>
+        <v>0.1155763429186062</v>
       </c>
       <c r="L24">
-        <v>0.4987510407993339</v>
+        <v>0.5252410663641521</v>
       </c>
       <c r="M24">
-        <v>0.4293598233995585</v>
+        <v>0.4330143540669856</v>
       </c>
       <c r="N24">
-        <v>0.3365384615384616</v>
+        <v>0.4074468085106384</v>
       </c>
       <c r="O24">
-        <v>0.2807017543859649</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P24">
-        <v>0.7579583468220568</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R24">
-        <v>0.588785046728972</v>
+        <v>0.5285285285285285</v>
       </c>
       <c r="S24">
-        <v>0.1818181818181818</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T24">
-        <v>0.6956521739130435</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0.3835616438356164</v>
+        <v>0.3891625615763547</v>
       </c>
       <c r="W24">
-        <v>0.3744493392070485</v>
+        <v>0.3627118644067797</v>
       </c>
       <c r="X24">
-        <v>0.1635520067767772</v>
+        <v>0.1065851405271294</v>
       </c>
       <c r="Y24">
-        <v>0.2607872549646254</v>
+        <v>0.2869531703325906</v>
       </c>
       <c r="Z24">
-        <v>0.6400255754475703</v>
+        <v>0.5559924078091106</v>
       </c>
       <c r="AA24">
-        <v>0.4663665254237288</v>
+        <v>0.4413851351351352</v>
       </c>
       <c r="AB24">
-        <v>0.2524038461538461</v>
+        <v>0.3055851063829788</v>
       </c>
       <c r="AC24">
-        <v>0.4821428571428571</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AD24">
-        <v>0.7077655557379741</v>
+        <v>0.7025466624485922</v>
       </c>
       <c r="AE24">
-        <v>0.875</v>
+        <v>0.525</v>
       </c>
       <c r="AF24">
-        <v>0.673992673992674</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="AG24">
-        <v>0.4772727272727273</v>
+        <v>0.4</v>
       </c>
       <c r="AH24">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="AI24">
-        <v>0.3214285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="AJ24">
         <v>0.2075471698113208</v>
@@ -3541,88 +3541,88 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.4809160305343512</v>
+        <v>0.5119617224880383</v>
       </c>
       <c r="I25">
-        <v>0.28125</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="J25">
-        <v>-0.2678324292236215</v>
+        <v>-0.08808928319871023</v>
       </c>
       <c r="K25">
-        <v>0.6425778553638554</v>
+        <v>0.601949131787076</v>
       </c>
       <c r="L25">
-        <v>0.7868442964196504</v>
+        <v>0.7958026091888827</v>
       </c>
       <c r="M25">
-        <v>0.7582781456953642</v>
+        <v>0.7623604465709729</v>
       </c>
       <c r="N25">
-        <v>0.4134615384615384</v>
+        <v>0.4755319148936171</v>
       </c>
       <c r="O25">
-        <v>0.7719298245614035</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P25">
-        <v>0.7633538361929427</v>
+        <v>0.9131191644247506</v>
       </c>
       <c r="Q25">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R25">
-        <v>0.3831775700934579</v>
+        <v>0.3813813813813814</v>
       </c>
       <c r="S25">
-        <v>0.09090909090909091</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T25">
-        <v>0.4347826086956522</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="U25">
-        <v>0.7999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0.4285714285714285</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="W25">
-        <v>0.4274809160305343</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="X25">
-        <v>0.4507185825716343</v>
+        <v>0.5479483609267872</v>
       </c>
       <c r="Y25">
-        <v>0.6049705082100839</v>
+        <v>0.5133049718994029</v>
       </c>
       <c r="Z25">
-        <v>0.7860187553282182</v>
+        <v>0.6675704989154013</v>
       </c>
       <c r="AA25">
-        <v>0.8644067796610169</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="AB25">
-        <v>0.4134615384615384</v>
+        <v>0.4755319148936171</v>
       </c>
       <c r="AC25">
-        <v>0.6428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="AD25">
-        <v>0.7784162425436436</v>
+        <v>0.7787092692186016</v>
       </c>
       <c r="AE25">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="AF25">
-        <v>0.463980463980464</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AG25">
-        <v>0.2727272727272728</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH25">
-        <v>0.2</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AI25">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ25">
         <v>0.2830188679245283</v>
@@ -3654,88 +3654,88 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.5185185185185185</v>
+        <v>0.4858490566037736</v>
       </c>
       <c r="I26">
-        <v>0.3767123287671233</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="J26">
-        <v>0.293875728104364</v>
+        <v>0.2295902003319905</v>
       </c>
       <c r="K26">
-        <v>0.6031788055409217</v>
+        <v>0.630736629600087</v>
       </c>
       <c r="L26">
-        <v>0.8026644462947543</v>
+        <v>0.8406125921724334</v>
       </c>
       <c r="M26">
-        <v>0.5264900662251656</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="N26">
-        <v>0.780448717948718</v>
+        <v>0.6287234042553191</v>
       </c>
       <c r="O26">
-        <v>0.631578947368421</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="P26">
-        <v>0.7635696557677781</v>
+        <v>0.8711821490742205</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R26">
-        <v>0.5093457943925235</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="S26">
-        <v>0.8181818181818182</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T26">
-        <v>0.8695652173913043</v>
+        <v>0.7</v>
       </c>
       <c r="U26">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="V26">
-        <v>0.4202898550724637</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="W26">
-        <v>0.4020618556701031</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="X26">
-        <v>-0.08164011371305047</v>
+        <v>0.234739523698362</v>
       </c>
       <c r="Y26">
-        <v>0.1050334749699107</v>
+        <v>0.05984757044465598</v>
       </c>
       <c r="Z26">
-        <v>0.566069906223359</v>
+        <v>0.5244034707158352</v>
       </c>
       <c r="AA26">
-        <v>0.3315677966101694</v>
+        <v>0.3013513513513513</v>
       </c>
       <c r="AB26">
-        <v>0.780448717948718</v>
+        <v>0.6287234042553191</v>
       </c>
       <c r="AC26">
-        <v>0.2142857142857143</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="AD26">
-        <v>0.9228916981338586</v>
+        <v>0.9215438152483391</v>
       </c>
       <c r="AE26">
         <v>0.5</v>
       </c>
       <c r="AF26">
-        <v>0.2051282051282051</v>
+        <v>0.2067901234567901</v>
       </c>
       <c r="AG26">
-        <v>0.6363636363636365</v>
+        <v>0.6</v>
       </c>
       <c r="AH26">
         <v>0.4</v>
       </c>
       <c r="AI26">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AJ26">
         <v>0.5849056603773585</v>
@@ -3767,88 +3767,88 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.3671875</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="I27">
-        <v>0.3571428571428572</v>
+        <v>0.3712574850299401</v>
       </c>
       <c r="J27">
-        <v>0.564021756251896</v>
+        <v>0.496594407667418</v>
       </c>
       <c r="K27">
-        <v>0.1601108130336107</v>
+        <v>0.09633872737301896</v>
       </c>
       <c r="L27">
-        <v>0.582014987510408</v>
+        <v>0.5173000567214975</v>
       </c>
       <c r="M27">
-        <v>0.4966887417218543</v>
+        <v>0.5</v>
       </c>
       <c r="N27">
-        <v>0.3990384615384616</v>
+        <v>0.3031914893617021</v>
       </c>
       <c r="O27">
-        <v>0.3508771929824562</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="P27">
-        <v>0.8494658465522823</v>
+        <v>0.9230890963760088</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R27">
-        <v>0.5841121495327103</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="S27">
-        <v>0.1818181818181818</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T27">
-        <v>0.1304347826086956</v>
+        <v>0.3</v>
       </c>
       <c r="U27">
         <v>0.4</v>
       </c>
       <c r="V27">
-        <v>0.3507462686567164</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="W27">
-        <v>0.3902439024390244</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="X27">
-        <v>0.3699508078748276</v>
+        <v>0.25179983465897</v>
       </c>
       <c r="Y27">
-        <v>0.2856997254408512</v>
+        <v>0.2150308520878244</v>
       </c>
       <c r="Z27">
-        <v>0.6632566069906223</v>
+        <v>0.5921908893709328</v>
       </c>
       <c r="AA27">
-        <v>0.5561440677966102</v>
+        <v>0.4804054054054054</v>
       </c>
       <c r="AB27">
-        <v>0.3990384615384616</v>
+        <v>0.3031914893617021</v>
       </c>
       <c r="AC27">
-        <v>0.4285714285714285</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AD27">
-        <v>0.858534449734581</v>
+        <v>0.8897500790888958</v>
       </c>
       <c r="AE27">
+        <v>0.5</v>
+      </c>
+      <c r="AF27">
+        <v>0.3549382716049383</v>
+      </c>
+      <c r="AG27">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="AH27">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AF27">
-        <v>0.3907203907203907</v>
-      </c>
-      <c r="AG27">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="AH27">
-        <v>0.6</v>
-      </c>
       <c r="AI27">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ27">
         <v>0.8113207547169812</v>
@@ -3880,88 +3880,88 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.4236111111111111</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="I28">
-        <v>0.375</v>
+        <v>0.3375</v>
       </c>
       <c r="J28">
-        <v>0.4419426173443262</v>
+        <v>0.4111647646195773</v>
       </c>
       <c r="K28">
-        <v>0.5731680600870817</v>
+        <v>0.7162204359477466</v>
       </c>
       <c r="L28">
-        <v>0.7027477102414654</v>
+        <v>0.7946681792399319</v>
       </c>
       <c r="M28">
-        <v>0.6766004415011038</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="N28">
-        <v>0.3701923076923077</v>
+        <v>0.4138297872340426</v>
       </c>
       <c r="O28">
-        <v>0.7719298245614035</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="P28">
-        <v>0.7504046617028165</v>
+        <v>0.8702326317455293</v>
       </c>
       <c r="Q28">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R28">
-        <v>0.6682242990654206</v>
+        <v>0.5795795795795795</v>
       </c>
       <c r="S28">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T28">
-        <v>0.6956521739130435</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U28">
         <v>0.2</v>
       </c>
       <c r="V28">
-        <v>0.3951612903225806</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="W28">
-        <v>0.3553719008264463</v>
+        <v>0.441025641025641</v>
       </c>
       <c r="X28">
-        <v>0.234332194353894</v>
+        <v>0.610879265017368</v>
       </c>
       <c r="Y28">
-        <v>0.1774379848048009</v>
+        <v>0.1541147147463191</v>
       </c>
       <c r="Z28">
-        <v>0.5822676896845694</v>
+        <v>0.490238611713666</v>
       </c>
       <c r="AA28">
-        <v>0.2023305084745763</v>
+        <v>0.1925675675675676</v>
       </c>
       <c r="AB28">
-        <v>0.3701923076923077</v>
+        <v>0.4138297872340426</v>
       </c>
       <c r="AC28">
-        <v>0.3571428571428572</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="AD28">
-        <v>0.6608657582225141</v>
+        <v>0.7197089528630181</v>
       </c>
       <c r="AE28">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AF28">
-        <v>0.3174603174603175</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AG28">
-        <v>0.4545454545454546</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH28">
-        <v>0.48</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AI28">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ28">
         <v>0.8490566037735849</v>
@@ -3993,88 +3993,88 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.4661654135338346</v>
+        <v>0.4947916666666667</v>
       </c>
       <c r="I29">
-        <v>0.2920353982300885</v>
+        <v>0.3315217391304348</v>
       </c>
       <c r="J29">
-        <v>-0.003003087734807088</v>
+        <v>-0.009810078799440174</v>
       </c>
       <c r="K29">
-        <v>0.5856801746159882</v>
+        <v>0.7212032454693248</v>
       </c>
       <c r="L29">
-        <v>0.7177352206494587</v>
+        <v>0.8077141236528645</v>
       </c>
       <c r="M29">
-        <v>0.6578366445916114</v>
+        <v>0.7607655502392344</v>
       </c>
       <c r="N29">
-        <v>0.4262820512820513</v>
+        <v>0.5</v>
       </c>
       <c r="O29">
-        <v>0.4912280701754386</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P29">
-        <v>0.7499730225531456</v>
+        <v>0.7800284855198607</v>
       </c>
       <c r="Q29">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R29">
-        <v>0.4953271028037384</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="S29">
-        <v>0.2727272727272728</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T29">
-        <v>0.3913043478260869</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="V29">
-        <v>0.4411764705882353</v>
+        <v>0.4251207729468599</v>
       </c>
       <c r="W29">
-        <v>0.4487179487179487</v>
+        <v>0.4790697674418605</v>
       </c>
       <c r="X29">
-        <v>0.4903527284728702</v>
+        <v>0.7088761364469321</v>
       </c>
       <c r="Y29">
-        <v>0.8143676347644014</v>
+        <v>0.5454956203102347</v>
       </c>
       <c r="Z29">
-        <v>0.7655583972719522</v>
+        <v>0.6409978308026031</v>
       </c>
       <c r="AA29">
-        <v>0.6927966101694915</v>
+        <v>0.5797297297297298</v>
       </c>
       <c r="AB29">
-        <v>0.4262820512820513</v>
+        <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="AD29">
-        <v>0.7845455042959558</v>
+        <v>0.8764631445745017</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF29">
-        <v>0.5128205128205128</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="AG29">
-        <v>0.5454545454545455</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH29">
-        <v>0.36</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="AI29">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ29">
         <v>0.6415094339622641</v>
@@ -4106,88 +4106,88 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="H30">
-        <v>0.4672131147540984</v>
+        <v>0.4153005464480874</v>
       </c>
       <c r="I30">
-        <v>0.3247863247863248</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="J30">
-        <v>-0.2121746089209412</v>
+        <v>0.2419730229747918</v>
       </c>
       <c r="K30">
-        <v>0.3706368613786786</v>
+        <v>0.225878792747623</v>
       </c>
       <c r="L30">
-        <v>0.7252289758534555</v>
+        <v>0.6420873511060692</v>
       </c>
       <c r="M30">
-        <v>0.6423841059602649</v>
+        <v>0.6299840510366825</v>
       </c>
       <c r="N30">
-        <v>0.4631410256410256</v>
+        <v>0.3638297872340426</v>
       </c>
       <c r="O30">
-        <v>0.7017543859649124</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P30">
-        <v>0.7219164778245387</v>
+        <v>0.7616711504984965</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R30">
-        <v>0.5186915887850467</v>
+        <v>0.5825825825825827</v>
       </c>
       <c r="S30">
-        <v>0.9090909090909092</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U30">
         <v>0.2</v>
       </c>
       <c r="V30">
-        <v>0.5901639344262295</v>
+        <v>0.5803108808290155</v>
       </c>
       <c r="W30">
-        <v>0.3793103448275862</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="X30">
-        <v>0.1108329867334361</v>
+        <v>0.04125246088118294</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.9641943734015346</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.4631410256410256</v>
+        <v>0.3638297872340426</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="AD30">
-        <v>0.7845455042959558</v>
+        <v>0.9041442581461562</v>
       </c>
       <c r="AE30">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="AF30">
-        <v>0.7472527472527473</v>
+        <v>0.8117283950617284</v>
       </c>
       <c r="AG30">
-        <v>0.2727272727272728</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH30">
-        <v>0.28</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AI30">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ30">
         <v>0.4716981132075472</v>
@@ -4219,88 +4219,88 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.4273504273504273</v>
+        <v>0.4057142857142857</v>
       </c>
       <c r="I31">
-        <v>0.3870967741935484</v>
+        <v>0.38860103626943</v>
       </c>
       <c r="J31">
-        <v>0.08383829223909799</v>
+        <v>0.4350787232364189</v>
       </c>
       <c r="K31">
-        <v>0.2035194889953727</v>
+        <v>0.1707527097002543</v>
       </c>
       <c r="L31">
-        <v>0.5487094088259784</v>
+        <v>0.5677821894498015</v>
       </c>
       <c r="M31">
-        <v>0.3465783664459161</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="N31">
-        <v>0.5528846153846154</v>
+        <v>0.4563829787234043</v>
       </c>
       <c r="O31">
-        <v>0.3508771929824562</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P31">
-        <v>0.8110499622315744</v>
+        <v>0.8493432505143218</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R31">
-        <v>0.3691588785046729</v>
+        <v>0.4024024024024024</v>
       </c>
       <c r="S31">
-        <v>0.2727272727272728</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T31">
-        <v>0.4782608695652174</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="U31">
         <v>0.6</v>
       </c>
       <c r="V31">
-        <v>0.4365079365079365</v>
+        <v>0.4205128205128205</v>
       </c>
       <c r="W31">
-        <v>0.3819444444444444</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="X31">
-        <v>0.474554508765023</v>
+        <v>0.3891649078378974</v>
       </c>
       <c r="Y31">
-        <v>0.5746015636226901</v>
+        <v>0.6712929669979876</v>
       </c>
       <c r="Z31">
-        <v>0.6973572037510657</v>
+        <v>0.7505422993492408</v>
       </c>
       <c r="AA31">
-        <v>0.3569915254237288</v>
+        <v>0.5391891891891892</v>
       </c>
       <c r="AB31">
-        <v>0.5528846153846154</v>
+        <v>0.4563829787234043</v>
       </c>
       <c r="AC31">
-        <v>0.7142857142857143</v>
+        <v>0.6818181818181819</v>
       </c>
       <c r="AD31">
-        <v>0.6718108684945001</v>
+        <v>0.725561531161025</v>
       </c>
       <c r="AE31">
-        <v>0.1666666666666667</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AF31">
-        <v>0.4297924297924298</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="AG31">
-        <v>0.2727272727272728</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH31">
-        <v>0.4</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AI31">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ31">
         <v>0.1320754716981132</v>
@@ -4332,88 +4332,88 @@
         <v>0.4230769230769231</v>
       </c>
       <c r="H32">
-        <v>0.5401459854014599</v>
+        <v>0.4950980392156863</v>
       </c>
       <c r="I32">
-        <v>0.2795698924731183</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="J32">
-        <v>-0.01603756935304449</v>
+        <v>0.1287614999955939</v>
       </c>
       <c r="K32">
-        <v>0.605492233721846</v>
+        <v>0.562275519624762</v>
       </c>
       <c r="L32">
-        <v>0.7543713572023314</v>
+        <v>0.7118547929665343</v>
       </c>
       <c r="M32">
-        <v>0.6247240618101545</v>
+        <v>0.583732057416268</v>
       </c>
       <c r="N32">
-        <v>0.5448717948717948</v>
+        <v>0.5563829787234044</v>
       </c>
       <c r="O32">
-        <v>0.5614035087719298</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P32">
-        <v>0.8807596849034207</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R32">
-        <v>0.3084112149532711</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="S32">
-        <v>0.1818181818181818</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="T32">
-        <v>0.4782608695652174</v>
+        <v>0.4</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V32">
-        <v>0.5369127516778524</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="W32">
-        <v>0.2536231884057971</v>
+        <v>0.3024390243902439</v>
       </c>
       <c r="X32">
-        <v>-0.02962981899378165</v>
+        <v>0.1771367739042215</v>
       </c>
       <c r="Y32">
-        <v>0.7607246561674931</v>
+        <v>0.6246501267240185</v>
       </c>
       <c r="Z32">
-        <v>0.814151747655584</v>
+        <v>0.7310195227765727</v>
       </c>
       <c r="AA32">
-        <v>0.4661016949152542</v>
+        <v>0.4912162162162163</v>
       </c>
       <c r="AB32">
-        <v>0.5448717948717948</v>
+        <v>0.5563829787234044</v>
       </c>
       <c r="AC32">
-        <v>0.7142857142857143</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AD32">
-        <v>0.6282493296119959</v>
+        <v>0.6687757038911736</v>
       </c>
       <c r="AE32">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="AF32">
-        <v>0.6007326007326007</v>
+        <v>0.6234567901234568</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="AI32">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ32">
         <v>0.2641509433962264</v>
@@ -4445,88 +4445,88 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.4</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="I33">
-        <v>0.459016393442623</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="J33">
-        <v>0.4932119993470684</v>
+        <v>0.4229846853466327</v>
       </c>
       <c r="K33">
-        <v>0.1179580863104609</v>
+        <v>0.221450102867996</v>
       </c>
       <c r="L33">
-        <v>0.5312239800166528</v>
+        <v>0.579126488939308</v>
       </c>
       <c r="M33">
-        <v>0.3245033112582781</v>
+        <v>0.4505582137161085</v>
       </c>
       <c r="N33">
-        <v>0.5512820512820513</v>
+        <v>0.4851063829787234</v>
       </c>
       <c r="O33">
-        <v>0.4210526315789473</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P33">
-        <v>0.6453005287579583</v>
+        <v>0.744579838582054</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R33">
-        <v>0.3738317757009346</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="S33">
-        <v>0.09090909090909091</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T33">
-        <v>0.1739130434782609</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="U33">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V33">
-        <v>0.4756756756756757</v>
+        <v>0.4329501915708812</v>
       </c>
       <c r="W33">
-        <v>0.407035175879397</v>
+        <v>0.4028776978417266</v>
       </c>
       <c r="X33">
-        <v>0.5440163054423911</v>
+        <v>0.5417371276836458</v>
       </c>
       <c r="Y33">
-        <v>0.3733577143330448</v>
+        <v>0.2603672848019603</v>
       </c>
       <c r="Z33">
-        <v>0.7551150895140665</v>
+        <v>0.645065075921909</v>
       </c>
       <c r="AA33">
-        <v>0.6498940677966101</v>
+        <v>0.5741554054054054</v>
       </c>
       <c r="AB33">
-        <v>0.4134615384615384</v>
+        <v>0.3638297872340426</v>
       </c>
       <c r="AC33">
-        <v>0.75</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="AD33">
-        <v>0.8075849614184863</v>
+        <v>0.801842771274913</v>
       </c>
       <c r="AE33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF33">
-        <v>0.4908424908424908</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="AG33">
-        <v>0.4772727272727273</v>
+        <v>0.45</v>
       </c>
       <c r="AH33">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="AI33">
-        <v>0.3214285714285714</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AJ33">
         <v>0.9433962264150944</v>
@@ -4558,88 +4558,88 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.4820143884892086</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="I34">
-        <v>0.3275862068965517</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="J34">
-        <v>0.1438680827806811</v>
+        <v>0.3675403174348437</v>
       </c>
       <c r="K34">
-        <v>0.878541102295453</v>
+        <v>0.7117535741599004</v>
       </c>
       <c r="L34">
-        <v>0.8642797668609492</v>
+        <v>0.8939307997731142</v>
       </c>
       <c r="M34">
-        <v>0.6545253863134658</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N34">
-        <v>0.7131410256410257</v>
+        <v>0.7638297872340426</v>
       </c>
       <c r="O34">
-        <v>0.8421052631578947</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P34">
-        <v>0.8609042840185606</v>
+        <v>0.9743630321253363</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R34">
-        <v>0.6775700934579441</v>
+        <v>0.6696696696696697</v>
       </c>
       <c r="S34">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T34">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U34">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V34">
-        <v>0.3551401869158878</v>
+        <v>0.3612903225806451</v>
       </c>
       <c r="W34">
-        <v>0.4634146341463415</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="X34">
-        <v>0.3817755663652287</v>
+        <v>0.4257042154085597</v>
       </c>
       <c r="Y34">
-        <v>0.1001088402862379</v>
+        <v>0.2594306597637067</v>
       </c>
       <c r="Z34">
-        <v>0.5635123614663257</v>
+        <v>0.5536876355748374</v>
       </c>
       <c r="AA34">
-        <v>0.4936440677966102</v>
+        <v>0.475</v>
       </c>
       <c r="AB34">
-        <v>0.7131410256410257</v>
+        <v>0.7638297872340426</v>
       </c>
       <c r="AC34">
-        <v>0.2857142857142857</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AD34">
-        <v>0.7630930881628633</v>
+        <v>0.7779183802594115</v>
       </c>
       <c r="AE34">
         <v>0.5</v>
       </c>
       <c r="AF34">
-        <v>0.5811965811965811</v>
+        <v>0.4969135802469136</v>
       </c>
       <c r="AG34">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="AH34">
-        <v>0.28</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AI34">
-        <v>0.2857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ34">
         <v>0.1509433962264151</v>
@@ -4671,88 +4671,88 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0.412280701754386</v>
+        <v>0.425414364640884</v>
       </c>
       <c r="I35">
-        <v>0.3785714285714286</v>
+        <v>0.3383838383838384</v>
       </c>
       <c r="J35">
-        <v>0.2276795437215058</v>
+        <v>0.09468002105370493</v>
       </c>
       <c r="K35">
-        <v>0.1391091381831687</v>
+        <v>0.2835877587239907</v>
       </c>
       <c r="L35">
-        <v>0.5295587010824313</v>
+        <v>0.5672149744753262</v>
       </c>
       <c r="M35">
-        <v>0.2571743929359824</v>
+        <v>0.3118022328548645</v>
       </c>
       <c r="N35">
-        <v>0.6458333333333334</v>
+        <v>0.647872340425532</v>
       </c>
       <c r="O35">
-        <v>0.2105263157894737</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P35">
-        <v>0.7637854753426137</v>
+        <v>0.9039404969140686</v>
       </c>
       <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35">
-        <v>0.4439252336448599</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U35">
         <v>0.2</v>
       </c>
       <c r="V35">
-        <v>0.3888888888888889</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="W35">
-        <v>0.3513513513513514</v>
+        <v>0.3876404494382023</v>
       </c>
       <c r="X35">
-        <v>0.02797125763664425</v>
+        <v>0.2769943568059375</v>
       </c>
       <c r="Y35">
-        <v>0.1501612135746016</v>
+        <v>0.02862603402532458</v>
       </c>
       <c r="Z35">
-        <v>0.5950554134697357</v>
+        <v>0.4593275488069414</v>
       </c>
       <c r="AA35">
-        <v>0.4968220338983051</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>0.6458333333333334</v>
+        <v>0.647872340425532</v>
       </c>
       <c r="AC35">
-        <v>0.3571428571428572</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="AD35">
-        <v>0.957040442182455</v>
+        <v>0.9166403037013603</v>
       </c>
       <c r="AE35">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AF35">
-        <v>0.5128205128205128</v>
+        <v>0.3549382716049383</v>
       </c>
       <c r="AG35">
-        <v>0.5454545454545455</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH35">
-        <v>0.28</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="AI35">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ35">
         <v>0.5283018867924528</v>
@@ -4784,88 +4784,88 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.5225806451612903</v>
+        <v>0.4832535885167464</v>
       </c>
       <c r="I36">
-        <v>0.4710743801652892</v>
+        <v>0.4083769633507853</v>
       </c>
       <c r="J36">
-        <v>0.2825097909431858</v>
+        <v>0.2172689971664498</v>
       </c>
       <c r="K36">
-        <v>0.7872015554629577</v>
+        <v>0.6363780138160041</v>
       </c>
       <c r="L36">
-        <v>0.8034970857618652</v>
+        <v>0.719795802609189</v>
       </c>
       <c r="M36">
-        <v>0.663355408388521</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="N36">
-        <v>0.5833333333333333</v>
+        <v>0.6127659574468085</v>
       </c>
       <c r="O36">
-        <v>0.9122807017543859</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P36">
-        <v>0.840401424409194</v>
+        <v>0.8371577781294508</v>
       </c>
       <c r="Q36">
-        <v>0.125</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R36">
-        <v>0.3878504672897197</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="S36">
-        <v>0.6363636363636365</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="T36">
-        <v>0.4782608695652174</v>
+        <v>0.6</v>
       </c>
       <c r="U36">
         <v>0.4</v>
       </c>
       <c r="V36">
-        <v>0.4352331606217616</v>
+        <v>0.3992395437262358</v>
       </c>
       <c r="W36">
-        <v>0.4627659574468085</v>
+        <v>0.4421487603305785</v>
       </c>
       <c r="X36">
-        <v>0.5758342401656524</v>
+        <v>0.5182948904512331</v>
       </c>
       <c r="Y36">
-        <v>0.4497331993982476</v>
+        <v>0.2942744694547966</v>
       </c>
       <c r="Z36">
-        <v>0.7333759590792839</v>
+        <v>0.579175704989154</v>
       </c>
       <c r="AA36">
-        <v>0.4973516949152542</v>
+        <v>0.4373310810810811</v>
       </c>
       <c r="AB36">
-        <v>0.4375</v>
+        <v>0.4595744680851064</v>
       </c>
       <c r="AC36">
-        <v>0.75</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AD36">
-        <v>0.932030865210967</v>
+        <v>0.9220183486238531</v>
       </c>
       <c r="AE36">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="AF36">
-        <v>0.4249084249084249</v>
+        <v>0.349537037037037</v>
       </c>
       <c r="AG36">
-        <v>0.3409090909090909</v>
+        <v>0.3</v>
       </c>
       <c r="AH36">
         <v>0.45</v>
       </c>
       <c r="AI36">
-        <v>0.1071428571428571</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AJ36">
         <v>0.8679245283018868</v>
@@ -4897,88 +4897,88 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.4015748031496063</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="I37">
-        <v>0.4015748031496063</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="J37">
-        <v>0.1052435226593836</v>
+        <v>0.07151448910417146</v>
       </c>
       <c r="K37">
-        <v>0.3286580705601066</v>
+        <v>0.2466930229748372</v>
       </c>
       <c r="L37">
-        <v>0.6877601998334721</v>
+        <v>0.6324446965399887</v>
       </c>
       <c r="M37">
-        <v>0.456953642384106</v>
+        <v>0.562200956937799</v>
       </c>
       <c r="N37">
-        <v>0.6602564102564104</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="O37">
-        <v>0.4210526315789473</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="P37">
-        <v>0.8108341426567389</v>
+        <v>0.8205412248773539</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R37">
-        <v>0.3037383177570094</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="S37">
-        <v>0.09090909090909091</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T37">
-        <v>0.4347826086956522</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="U37">
         <v>0.4</v>
       </c>
       <c r="V37">
-        <v>0.4769230769230769</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="W37">
-        <v>0.3043478260869565</v>
+        <v>0.3045977011494253</v>
       </c>
       <c r="X37">
-        <v>0.2691608717137383</v>
+        <v>0.2249766726812477</v>
       </c>
       <c r="Y37">
-        <v>0.5178701743478633</v>
+        <v>0.3381862052619374</v>
       </c>
       <c r="Z37">
-        <v>0.7084398976982097</v>
+        <v>0.609002169197397</v>
       </c>
       <c r="AA37">
-        <v>0.426906779661017</v>
+        <v>0.4074324324324324</v>
       </c>
       <c r="AB37">
-        <v>0.6602564102564104</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="AC37">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="AD37">
-        <v>0.7685656432988562</v>
+        <v>0.872192344194875</v>
       </c>
       <c r="AE37">
-        <v>0.1666666666666667</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AF37">
-        <v>0.3956043956043956</v>
+        <v>0.3734567901234568</v>
       </c>
       <c r="AG37">
-        <v>0.6363636363636365</v>
+        <v>0.8</v>
       </c>
       <c r="AH37">
-        <v>0.7599999999999999</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="AI37">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ37">
         <v>0.8867924528301887</v>
@@ -5010,88 +5010,88 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0.4397163120567376</v>
+        <v>0.4097560975609756</v>
       </c>
       <c r="I38">
-        <v>0.4285714285714285</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="J38">
-        <v>0.4406535595194061</v>
+        <v>0.6176519658818712</v>
       </c>
       <c r="K38">
-        <v>0.2781442197307953</v>
+        <v>0.2025032385680857</v>
       </c>
       <c r="L38">
-        <v>0.6303080766028311</v>
+        <v>0.5473624503686898</v>
       </c>
       <c r="M38">
-        <v>0.5463576158940397</v>
+        <v>0.485645933014354</v>
       </c>
       <c r="N38">
-        <v>0.4198717948717948</v>
+        <v>0.3787234042553192</v>
       </c>
       <c r="O38">
-        <v>0.4210526315789473</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="P38">
-        <v>0.8259415128952197</v>
+        <v>0.8461781927520177</v>
       </c>
       <c r="Q38">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R38">
-        <v>0.4813084112149533</v>
+        <v>0.5015015015015015</v>
       </c>
       <c r="S38">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T38">
-        <v>0.7391304347826088</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U38">
         <v>0.2</v>
       </c>
       <c r="V38">
-        <v>0.4508196721311475</v>
+        <v>0.4078212290502793</v>
       </c>
       <c r="W38">
-        <v>0.4347826086956522</v>
+        <v>0.4022346368715084</v>
       </c>
       <c r="X38">
-        <v>0.6658662909588822</v>
+        <v>0.5023840870840983</v>
       </c>
       <c r="Y38">
-        <v>0.6780157724608524</v>
+        <v>0.6533016216568035</v>
       </c>
       <c r="Z38">
-        <v>0.659846547314578</v>
+        <v>0.6247288503253796</v>
       </c>
       <c r="AA38">
-        <v>0.4777542372881356</v>
+        <v>0.4074324324324324</v>
       </c>
       <c r="AB38">
-        <v>0.4198717948717948</v>
+        <v>0.3787234042553192</v>
       </c>
       <c r="AC38">
         <v>0.5</v>
       </c>
       <c r="AD38">
-        <v>0.7556504131779128</v>
+        <v>0.8248971844353052</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AF38">
-        <v>0.6837606837606838</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AG38">
-        <v>0.2727272727272728</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AH38">
-        <v>0.4399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AI38">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ38">
         <v>0.660377358490566</v>
@@ -5123,88 +5123,88 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.6086956521739131</v>
+        <v>0.535</v>
       </c>
       <c r="I39">
-        <v>0.4666666666666667</v>
+        <v>0.4917127071823205</v>
       </c>
       <c r="J39">
-        <v>0.337919288170542</v>
+        <v>0.6589210205461542</v>
       </c>
       <c r="K39">
-        <v>0.8326647451391914</v>
+        <v>0.5899431867165981</v>
       </c>
       <c r="L39">
-        <v>0.778517901748543</v>
+        <v>0.7328417470221215</v>
       </c>
       <c r="M39">
-        <v>0.7461368653421634</v>
+        <v>0.74481658692185</v>
       </c>
       <c r="N39">
-        <v>0.4150641025641025</v>
+        <v>0.3808510638297872</v>
       </c>
       <c r="O39">
-        <v>0.7017543859649124</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P39">
-        <v>0.7570950685227149</v>
+        <v>0.8292451337236905</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R39">
-        <v>0.4205607476635514</v>
+        <v>0.5525525525525525</v>
       </c>
       <c r="S39">
-        <v>0.5454545454545455</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T39">
-        <v>0.5652173913043478</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U39">
         <v>0.2</v>
       </c>
       <c r="V39">
-        <v>0.5107913669064749</v>
+        <v>0.52</v>
       </c>
       <c r="W39">
-        <v>0.3636363636363636</v>
+        <v>0.366120218579235</v>
       </c>
       <c r="X39">
-        <v>0.1089703177805533</v>
+        <v>0.102858174924775</v>
       </c>
       <c r="Y39">
-        <v>0.5322802514737424</v>
+        <v>0.6525197659429354</v>
       </c>
       <c r="Z39">
-        <v>0.7561807331628304</v>
+        <v>0.7592190889370933</v>
       </c>
       <c r="AA39">
-        <v>0.538135593220339</v>
+        <v>0.4837837837837838</v>
       </c>
       <c r="AB39">
-        <v>0.4150641025641025</v>
+        <v>0.3808510638297872</v>
       </c>
       <c r="AC39">
-        <v>0.6428571428571428</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="AD39">
-        <v>0.8478082416680348</v>
+        <v>0.8856374565011071</v>
       </c>
       <c r="AE39">
         <v>0.5</v>
       </c>
       <c r="AF39">
-        <v>0.4395604395604396</v>
+        <v>0.478395061728395</v>
       </c>
       <c r="AG39">
-        <v>0.7272727272727273</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AH39">
-        <v>0.4399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ39">
         <v>0.9245283018867925</v>
@@ -5236,88 +5236,88 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.3487179487179487</v>
+        <v>0.3861788617886179</v>
       </c>
       <c r="I40">
-        <v>0.350253807106599</v>
+        <v>0.3927272727272727</v>
       </c>
       <c r="J40">
-        <v>0.1034053878827236</v>
+        <v>0.3625823621917321</v>
       </c>
       <c r="K40">
-        <v>0.1919700303360508</v>
+        <v>0.2223836855708331</v>
       </c>
       <c r="L40">
-        <v>0.7456286427976686</v>
+        <v>0.6576857629041407</v>
       </c>
       <c r="M40">
-        <v>0.5670529801324503</v>
+        <v>0.5011961722488039</v>
       </c>
       <c r="N40">
-        <v>0.6117788461538461</v>
+        <v>0.5648936170212766</v>
       </c>
       <c r="O40">
-        <v>0.4736842105263158</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="P40">
-        <v>0.8996438977015215</v>
+        <v>0.8247744896344358</v>
       </c>
       <c r="Q40">
-        <v>0.46875</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="R40">
-        <v>0.6343457943925234</v>
+        <v>0.4887387387387387</v>
       </c>
       <c r="S40">
-        <v>0.4090909090909091</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="T40">
-        <v>0.7173913043478261</v>
+        <v>0.65</v>
       </c>
       <c r="U40">
         <v>0.6</v>
       </c>
       <c r="V40">
-        <v>0.3303571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="W40">
-        <v>0.4744525547445255</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0.8960989136102168</v>
       </c>
       <c r="Y40">
-        <v>0.05715858245859006</v>
+        <v>0.3237830771299727</v>
       </c>
       <c r="Z40">
-        <v>0.658994032395567</v>
+        <v>0.6941431670281997</v>
       </c>
       <c r="AA40">
-        <v>0.5095338983050848</v>
+        <v>0.5121621621621621</v>
       </c>
       <c r="AB40">
-        <v>0.8157051282051282</v>
+        <v>0.7531914893617022</v>
       </c>
       <c r="AC40">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AD40">
-        <v>0.6980791331472664</v>
+        <v>0.811293894337235</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AF40">
-        <v>0.2686202686202686</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="AG40">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="AH40">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="AI40">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ40">
         <v>0.3962264150943396</v>
@@ -5349,88 +5349,88 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.5063291139240507</v>
+        <v>0.4518518518518518</v>
       </c>
       <c r="I41">
-        <v>0.2</v>
+        <v>0.2743362831858407</v>
       </c>
       <c r="J41">
-        <v>-0.05482980342864208</v>
+        <v>-0.1025395196875868</v>
       </c>
       <c r="K41">
-        <v>0.4750473397943149</v>
+        <v>0.3254130642339067</v>
       </c>
       <c r="L41">
-        <v>0.771856786011657</v>
+        <v>0.6449234259784459</v>
       </c>
       <c r="M41">
-        <v>0.5264900662251656</v>
+        <v>0.4282296650717703</v>
       </c>
       <c r="N41">
-        <v>0.7211538461538461</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="O41">
-        <v>0.7017543859649124</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P41">
-        <v>0.8147188950037768</v>
+        <v>0.8757714828295616</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R41">
-        <v>0.397196261682243</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="S41">
-        <v>0.3636363636363636</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T41">
-        <v>0.7826086956521738</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U41">
-        <v>0.4</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V41">
-        <v>0.4044117647058824</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="W41">
-        <v>0.3106796116504854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="X41">
-        <v>0.194213999777516</v>
+        <v>0.1400665458378368</v>
       </c>
       <c r="Y41">
-        <v>0.4521113530803572</v>
+        <v>0.2619369463434304</v>
       </c>
       <c r="Z41">
-        <v>0.6419437340153452</v>
+        <v>0.520065075921909</v>
       </c>
       <c r="AA41">
-        <v>0.4798728813559322</v>
+        <v>0.3608108108108108</v>
       </c>
       <c r="AB41">
-        <v>0.7211538461538461</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AC41">
-        <v>0.6428571428571428</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AD41">
-        <v>0.8756088217588792</v>
+        <v>0.8851629231255931</v>
       </c>
       <c r="AE41">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="AF41">
-        <v>0.4737484737484738</v>
+        <v>0.5</v>
       </c>
       <c r="AG41">
-        <v>0.5454545454545455</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AH41">
-        <v>0.48</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AI41">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ41">
         <v>0.9811320754716981</v>
@@ -5468,37 +5468,37 @@
         <v>0.3445945945945946</v>
       </c>
       <c r="J42">
-        <v>-0.2621656548254276</v>
+        <v>-0.2177882235254935</v>
       </c>
       <c r="K42">
-        <v>0.8675453847381752</v>
+        <v>0.5970148921156903</v>
       </c>
       <c r="L42">
-        <v>0.8576186511240633</v>
+        <v>0.5842314237095859</v>
       </c>
       <c r="M42">
-        <v>0.8807947019867549</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N42">
-        <v>0.3717948717948718</v>
+        <v>0.2468085106382979</v>
       </c>
       <c r="O42">
-        <v>0.9122807017543859</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="P42">
-        <v>0.6485378223804898</v>
+        <v>0.4755499287862003</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R42">
-        <v>0.5420560747663551</v>
+        <v>0.3483483483483483</v>
       </c>
       <c r="S42">
-        <v>0.7272727272727273</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T42">
-        <v>0.7391304347826088</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="U42">
         <v>0.4</v>
@@ -5510,40 +5510,40 @@
         <v>0.3898305084745763</v>
       </c>
       <c r="X42">
-        <v>0.1157200812854522</v>
+        <v>0.08467594527956043</v>
       </c>
       <c r="Y42">
-        <v>0.4891047013547289</v>
+        <v>0.3310170773905591</v>
       </c>
       <c r="Z42">
-        <v>0.9087809036658141</v>
+        <v>0.5780911062906725</v>
       </c>
       <c r="AA42">
-        <v>0.659957627118644</v>
+        <v>0.4209459459459459</v>
       </c>
       <c r="AB42">
-        <v>0.3717948717948718</v>
+        <v>0.2468085106382979</v>
       </c>
       <c r="AC42">
-        <v>0.7857142857142856</v>
+        <v>0.5</v>
       </c>
       <c r="AD42">
-        <v>0.7690034477097357</v>
+        <v>0.5556785827269851</v>
       </c>
       <c r="AE42">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="AF42">
-        <v>0.3174603174603175</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="AG42">
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0.16</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AI42">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ42">
         <v>0.6981132075471698</v>
@@ -5575,88 +5575,88 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.3928571428571428</v>
+        <v>0.4258373205741627</v>
       </c>
       <c r="I43">
-        <v>0.3943661971830986</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="J43">
-        <v>0.412777804491078</v>
+        <v>0.4476756637614176</v>
       </c>
       <c r="K43">
-        <v>0.3214801953771642</v>
+        <v>0.3546613404008932</v>
       </c>
       <c r="L43">
-        <v>0.6577851790174855</v>
+        <v>0.6466250709018718</v>
       </c>
       <c r="M43">
-        <v>0.5540838852097131</v>
+        <v>0.6267942583732058</v>
       </c>
       <c r="N43">
-        <v>0.4615384615384616</v>
+        <v>0.3765957446808511</v>
       </c>
       <c r="O43">
-        <v>0.5614035087719298</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P43">
-        <v>0.7959425919930937</v>
+        <v>0.8941288178509257</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R43">
-        <v>0.3878504672897197</v>
+        <v>0.5975975975975976</v>
       </c>
       <c r="S43">
-        <v>0.4545454545454546</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="T43">
-        <v>0.5652173913043478</v>
+        <v>0.7</v>
       </c>
       <c r="U43">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V43">
-        <v>0.5132743362831859</v>
+        <v>0.456043956043956</v>
       </c>
       <c r="W43">
-        <v>0.1379310344827586</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="X43">
-        <v>-0.5196183538780771</v>
+        <v>-0.1980172457084763</v>
       </c>
       <c r="Y43">
-        <v>0.7888252631678898</v>
+        <v>0.6148306508282225</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0.8264642082429502</v>
       </c>
       <c r="AA43">
-        <v>0.7934322033898304</v>
+        <v>0.6304054054054055</v>
       </c>
       <c r="AB43">
-        <v>0.4615384615384616</v>
+        <v>0.3765957446808511</v>
       </c>
       <c r="AC43">
-        <v>0.9285714285714285</v>
+        <v>0.7727272727272728</v>
       </c>
       <c r="AD43">
-        <v>0.784326602090516</v>
+        <v>0.816988294843404</v>
       </c>
       <c r="AE43">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF43">
-        <v>0.6446886446886447</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="AG43">
-        <v>0.6363636363636365</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AH43">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AI43">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ43">
         <v>0.7547169811320755</v>
@@ -5688,88 +5688,88 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.5193798449612403</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="I44">
-        <v>0.3414634146341464</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="J44">
-        <v>-0.2390242197339759</v>
+        <v>-0.1406197102039168</v>
       </c>
       <c r="K44">
-        <v>0.7091425714559234</v>
+        <v>0.6311375191547702</v>
       </c>
       <c r="L44">
-        <v>0.5720233139050791</v>
+        <v>0.6301758366420873</v>
       </c>
       <c r="M44">
-        <v>0.4525386313465783</v>
+        <v>0.5239234449760766</v>
       </c>
       <c r="N44">
-        <v>0.4439102564102564</v>
+        <v>0.4829787234042554</v>
       </c>
       <c r="O44">
-        <v>0.7017543859649124</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P44">
-        <v>0.797021689867271</v>
+        <v>0.9001424275993036</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R44">
-        <v>0.5607476635514019</v>
+        <v>0.7357357357357358</v>
       </c>
       <c r="S44">
-        <v>0.8181818181818182</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="T44">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>1</v>
       </c>
       <c r="V44">
-        <v>0.361344537815126</v>
+        <v>0.3390804597701149</v>
       </c>
       <c r="W44">
-        <v>0.3304347826086956</v>
+        <v>0.3457446808510639</v>
       </c>
       <c r="X44">
-        <v>0.06170406500115675</v>
+        <v>0.2406003528776362</v>
       </c>
       <c r="Y44">
-        <v>0.3334061240645551</v>
+        <v>0.2704236543177147</v>
       </c>
       <c r="Z44">
-        <v>0.5549872122762148</v>
+        <v>0.5054229934924078</v>
       </c>
       <c r="AA44">
-        <v>0.5222457627118644</v>
+        <v>0.470945945945946</v>
       </c>
       <c r="AB44">
-        <v>0.4439102564102564</v>
+        <v>0.4829787234042554</v>
       </c>
       <c r="AC44">
-        <v>0.5714285714285714</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="AD44">
-        <v>0.7911125704591474</v>
+        <v>0.8073394495412843</v>
       </c>
       <c r="AE44">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="AF44">
-        <v>0.4444444444444444</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="AG44">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="AH44">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AI44">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AJ44">
         <v>0.07547169811320754</v>
@@ -5801,88 +5801,88 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.4793388429752066</v>
+        <v>0.496969696969697</v>
       </c>
       <c r="I45">
-        <v>0.3839285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J45">
-        <v>-0.04398631181785827</v>
+        <v>-0.09358077893015367</v>
       </c>
       <c r="K45">
-        <v>0.6343684390839683</v>
+        <v>0.4772477155750418</v>
       </c>
       <c r="L45">
-        <v>0.7443796835970026</v>
+        <v>0.6840612592172434</v>
       </c>
       <c r="M45">
-        <v>0.6545253863134658</v>
+        <v>0.5869218500797448</v>
       </c>
       <c r="N45">
-        <v>0.4823717948717948</v>
+        <v>0.5</v>
       </c>
       <c r="O45">
-        <v>0.631578947368421</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="P45">
-        <v>0.8356533937628143</v>
+        <v>0.8368412723532204</v>
       </c>
       <c r="Q45">
-        <v>0.125</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R45">
-        <v>0.3037383177570094</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="S45">
-        <v>0.4545454545454546</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T45">
-        <v>0.6086956521739131</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="U45">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="V45">
-        <v>0.4677419354838709</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="W45">
-        <v>0.390625</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="X45">
-        <v>0.2473527448281529</v>
+        <v>0.2365691986799856</v>
       </c>
       <c r="Y45">
-        <v>0.6242698852973484</v>
+        <v>0.3784126201401947</v>
       </c>
       <c r="Z45">
-        <v>0.7135549872122762</v>
+        <v>0.5650759219088937</v>
       </c>
       <c r="AA45">
-        <v>0.534957627118644</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>0.4823717948717948</v>
+        <v>0.5</v>
       </c>
       <c r="AC45">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="AD45">
+        <v>0.8891173679215438</v>
+      </c>
+      <c r="AE45">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="AF45">
+        <v>0.4969135802469136</v>
+      </c>
+      <c r="AG45">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AH45">
         <v>0.5</v>
       </c>
-      <c r="AD45">
-        <v>0.752366880096317</v>
-      </c>
-      <c r="AE45">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="AF45">
-        <v>0.7130647130647131</v>
-      </c>
-      <c r="AG45">
-        <v>0.6363636363636365</v>
-      </c>
-      <c r="AH45">
-        <v>0.5599999999999999</v>
-      </c>
       <c r="AI45">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ45">
         <v>0.4528301886792453</v>
@@ -5914,88 +5914,88 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.4090909090909091</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="I46">
-        <v>0.3577235772357724</v>
+        <v>0.3646408839779006</v>
       </c>
       <c r="J46">
-        <v>0.1000063606791189</v>
+        <v>0.02454125947289878</v>
       </c>
       <c r="K46">
-        <v>0.3784573315576884</v>
+        <v>0.4714246626156339</v>
       </c>
       <c r="L46">
-        <v>0.6419650291423814</v>
+        <v>0.6908678389109473</v>
       </c>
       <c r="M46">
-        <v>0.5960264900662252</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="N46">
-        <v>0.3701923076923077</v>
+        <v>0.3861702127659575</v>
       </c>
       <c r="O46">
-        <v>0.5614035087719298</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="P46">
-        <v>0.6973130462932988</v>
+        <v>0.7507517012185472</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R46">
-        <v>0.5654205607476637</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="S46">
-        <v>0.4545454545454546</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="T46">
-        <v>0.5652173913043478</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U46">
         <v>0.2</v>
       </c>
       <c r="V46">
-        <v>0.35</v>
+        <v>0.3607594936708861</v>
       </c>
       <c r="W46">
-        <v>0.3428571428571429</v>
+        <v>0.374331550802139</v>
       </c>
       <c r="X46">
-        <v>-0.1098716881574572</v>
+        <v>0.2077094898778966</v>
       </c>
       <c r="Y46">
-        <v>-0.1214963323950109</v>
+        <v>-0.1274648880405436</v>
       </c>
       <c r="Z46">
-        <v>0.4612105711849958</v>
+        <v>0.4050976138828634</v>
       </c>
       <c r="AA46">
-        <v>0.486228813559322</v>
+        <v>0.4094594594594595</v>
       </c>
       <c r="AB46">
-        <v>0.3701923076923077</v>
+        <v>0.3861702127659575</v>
       </c>
       <c r="AC46">
-        <v>0.2857142857142857</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="AD46">
-        <v>0.7574016308214305</v>
+        <v>0.8465675419171148</v>
       </c>
       <c r="AE46">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AF46">
-        <v>0.7423687423687423</v>
+        <v>0.595679012345679</v>
       </c>
       <c r="AG46">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH46">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="AI46">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ46">
         <v>0.3773584905660378</v>
@@ -6027,13 +6027,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.5862068965517241</v>
+        <v>0.5700483091787439</v>
       </c>
       <c r="I47">
-        <v>0.3307086614173229</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="J47">
-        <v>0.04213687902466923</v>
+        <v>-0.05906464992356058</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -6042,73 +6042,73 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <v>0.8167770419426048</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="N47">
-        <v>0.7387820512820512</v>
+        <v>0.7170212765957447</v>
       </c>
       <c r="O47">
-        <v>0.9824561403508772</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>0.8239991367217007</v>
+        <v>0.8620034815635385</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0.6728971962616823</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="S47">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T47">
-        <v>0.3478260869565217</v>
+        <v>0.5</v>
       </c>
       <c r="U47">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V47">
-        <v>0.3582089552238806</v>
+        <v>0.3522727272727273</v>
       </c>
       <c r="W47">
-        <v>0.3723404255319149</v>
+        <v>0.412</v>
       </c>
       <c r="X47">
-        <v>0.1650942752868274</v>
+        <v>0.4401710862833095</v>
       </c>
       <c r="Y47">
-        <v>0.3672251621933793</v>
+        <v>0.1940074772111992</v>
       </c>
       <c r="Z47">
-        <v>0.7161125319693095</v>
+        <v>0.5372830802603037</v>
       </c>
       <c r="AA47">
-        <v>0.7722457627118644</v>
+        <v>0.5645270270270271</v>
       </c>
       <c r="AB47">
-        <v>0.5540865384615384</v>
+        <v>0.5377659574468086</v>
       </c>
       <c r="AC47">
-        <v>0.5892857142857143</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AD47">
-        <v>0.8927926448858973</v>
+        <v>0.8613967099019297</v>
       </c>
       <c r="AE47">
+        <v>0.45</v>
+      </c>
+      <c r="AF47">
+        <v>0.6921296296296297</v>
+      </c>
+      <c r="AG47">
+        <v>0.35</v>
+      </c>
+      <c r="AH47">
         <v>0.625</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0.4772727272727273</v>
-      </c>
-      <c r="AH47">
-        <v>0.6599999999999999</v>
-      </c>
       <c r="AI47">
-        <v>0.1071428571428571</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AJ47">
         <v>0.7169811320754716</v>
@@ -6140,88 +6140,88 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3801652892561984</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="I48">
-        <v>0.351063829787234</v>
+        <v>0.3375</v>
       </c>
       <c r="J48">
-        <v>0.2650393887334546</v>
+        <v>0.2494929928358026</v>
       </c>
       <c r="K48">
-        <v>0.2432391820925895</v>
+        <v>0.311080273261854</v>
       </c>
       <c r="L48">
-        <v>0.7593671940049959</v>
+        <v>0.6965399886557005</v>
       </c>
       <c r="M48">
-        <v>0.7163355408388521</v>
+        <v>0.6220095693779905</v>
       </c>
       <c r="N48">
-        <v>0.421474358974359</v>
+        <v>0.4765957446808511</v>
       </c>
       <c r="O48">
-        <v>0.5614035087719298</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P48">
-        <v>0.8302579043919283</v>
+        <v>0.8102547871498654</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R48">
-        <v>0.3738317757009346</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="S48">
-        <v>0.6363636363636365</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T48">
-        <v>0.6086956521739131</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U48">
         <v>0.7999999999999999</v>
       </c>
       <c r="V48">
-        <v>0.4330708661417323</v>
+        <v>0.3937823834196891</v>
       </c>
       <c r="W48">
-        <v>0.4012738853503185</v>
+        <v>0.4086538461538461</v>
       </c>
       <c r="X48">
-        <v>0.3355753945238558</v>
+        <v>0.4417671033538298</v>
       </c>
       <c r="Y48">
-        <v>0.4222284985192795</v>
+        <v>0.3084136316048371</v>
       </c>
       <c r="Z48">
-        <v>0.5890878090366581</v>
+        <v>0.5325379609544468</v>
       </c>
       <c r="AA48">
-        <v>0.3707627118644068</v>
+        <v>0.3283783783783784</v>
       </c>
       <c r="AB48">
-        <v>0.421474358974359</v>
+        <v>0.4765957446808511</v>
       </c>
       <c r="AC48">
-        <v>0.5714285714285714</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AD48">
-        <v>0.8108137689487223</v>
+        <v>0.9539702625751344</v>
       </c>
       <c r="AE48">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AF48">
-        <v>0.1904761904761905</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="AG48">
-        <v>0.6363636363636365</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AH48">
-        <v>0.5199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AI48">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ48">
         <v>0.8301886792452831</v>
@@ -6253,88 +6253,88 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.4193548387096774</v>
+        <v>0.375</v>
       </c>
       <c r="I49">
-        <v>0.4370860927152318</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="J49">
-        <v>0.681599097631751</v>
+        <v>0.8483092992167297</v>
       </c>
       <c r="K49">
-        <v>0.1227495387115005</v>
+        <v>-0.01944411895950714</v>
       </c>
       <c r="L49">
-        <v>0.6469608659450459</v>
+        <v>0.5995462280204198</v>
       </c>
       <c r="M49">
-        <v>0.5441501103752759</v>
+        <v>0.5725677830940989</v>
       </c>
       <c r="N49">
-        <v>0.4551282051282052</v>
+        <v>0.3606382978723405</v>
       </c>
       <c r="O49">
-        <v>0.5614035087719298</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P49">
-        <v>0.7523470378763354</v>
+        <v>0.7960120272194967</v>
       </c>
       <c r="Q49">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R49">
-        <v>0.3224299065420561</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="S49">
-        <v>0.2727272727272728</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T49">
-        <v>0.4782608695652174</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="U49">
-        <v>0.7999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <v>0.4901960784313725</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="W49">
-        <v>0.4678899082568808</v>
+        <v>0.391812865497076</v>
       </c>
       <c r="X49">
-        <v>0.5399020761173864</v>
+        <v>0.1704690249139749</v>
       </c>
       <c r="Y49">
-        <v>0.4861924235164874</v>
+        <v>0.5470479889305077</v>
       </c>
       <c r="Z49">
-        <v>0.8380221653878943</v>
+        <v>0.838937093275488</v>
       </c>
       <c r="AA49">
-        <v>0.6271186440677966</v>
+        <v>0.6121621621621622</v>
       </c>
       <c r="AB49">
-        <v>0.4551282051282052</v>
+        <v>0.3606382978723405</v>
       </c>
       <c r="AC49">
-        <v>0.7142857142857143</v>
+        <v>0.6818181818181819</v>
       </c>
       <c r="AD49">
-        <v>0.6569255185245991</v>
+        <v>0.7999050933248971</v>
       </c>
       <c r="AE49">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="AF49">
-        <v>0.6251526251526252</v>
+        <v>0.6265432098765432</v>
       </c>
       <c r="AG49">
-        <v>0.6363636363636365</v>
+        <v>0.8</v>
       </c>
       <c r="AH49">
-        <v>0.5199999999999999</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AI49">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AJ49">
         <v>0.3018867924528302</v>
@@ -6366,88 +6366,88 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.5843373493975904</v>
+        <v>0.5541125541125541</v>
       </c>
       <c r="I50">
-        <v>0.3055555555555556</v>
+        <v>0.3351063829787234</v>
       </c>
       <c r="J50">
-        <v>0.007650517881654949</v>
+        <v>0.06265958629194697</v>
       </c>
       <c r="K50">
-        <v>0.6546353951328316</v>
+        <v>0.6246349019367752</v>
       </c>
       <c r="L50">
-        <v>0.9167360532889259</v>
+        <v>0.8326715825297788</v>
       </c>
       <c r="M50">
-        <v>0.6777041942604857</v>
+        <v>0.6523125996810207</v>
       </c>
       <c r="N50">
-        <v>0.780448717948718</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="O50">
-        <v>0.631578947368421</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P50">
-        <v>0.892198122369699</v>
+        <v>0.8914385187529672</v>
       </c>
       <c r="Q50">
-        <v>0.6250000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R50">
-        <v>0.1635514018691589</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="S50">
-        <v>0.1818181818181818</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="T50">
-        <v>0.4347826086956522</v>
+        <v>0.7</v>
       </c>
       <c r="U50">
-        <v>0.2</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V50">
-        <v>0.396551724137931</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="W50">
-        <v>0.4117647058823529</v>
+        <v>0.4311926605504587</v>
       </c>
       <c r="X50">
-        <v>0.1904091673637867</v>
+        <v>0.3771195787843479</v>
       </c>
       <c r="Y50">
-        <v>0.2768100740988004</v>
+        <v>0.2308529108824451</v>
       </c>
       <c r="Z50">
-        <v>0.578005115089514</v>
+        <v>0.5265726681127983</v>
       </c>
       <c r="AA50">
-        <v>0.4872881355932203</v>
+        <v>0.4527027027027027</v>
       </c>
       <c r="AB50">
-        <v>0.780448717948718</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="AC50">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AD50">
-        <v>0.6361298090078257</v>
+        <v>0.7834546029737425</v>
       </c>
       <c r="AE50">
-        <v>0.6666666666666666</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="AF50">
-        <v>0.4737484737484738</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="AG50">
-        <v>0.1818181818181818</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AH50">
-        <v>0.48</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AI50">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ50">
         <v>0.169811320754717</v>
@@ -6479,85 +6479,85 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.4414414414414414</v>
+        <v>0.4770114942528735</v>
       </c>
       <c r="I51">
-        <v>0.4153846153846154</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="J51">
-        <v>0.4757147210813552</v>
+        <v>0.6808791722639309</v>
       </c>
       <c r="K51">
-        <v>0.4769491248078341</v>
+        <v>0.4898113870678258</v>
       </c>
       <c r="L51">
-        <v>0.6736053288925896</v>
+        <v>0.6738513896766876</v>
       </c>
       <c r="M51">
-        <v>0.4657836644591611</v>
+        <v>0.5159489633173844</v>
       </c>
       <c r="N51">
-        <v>0.6201923076923077</v>
+        <v>0.5755319148936171</v>
       </c>
       <c r="O51">
-        <v>0.631578947368421</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P51">
-        <v>0.819251106075321</v>
+        <v>0.8567811362557366</v>
       </c>
       <c r="Q51">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R51">
-        <v>0.9766355140186918</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="S51">
-        <v>0.2727272727272728</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T51">
-        <v>0.3913043478260869</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0.5428571428571428</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="W51">
-        <v>0.4270270270270271</v>
+        <v>0.4556451612903226</v>
       </c>
       <c r="X51">
-        <v>0.6682545232826179</v>
+        <v>0.6544769276501722</v>
       </c>
       <c r="Y51">
-        <v>0.7350041680766465</v>
+        <v>0.6630274885183003</v>
       </c>
       <c r="Z51">
-        <v>0.9328644501278772</v>
+        <v>0.7552874186550976</v>
       </c>
       <c r="AA51">
-        <v>0.6332097457627118</v>
+        <v>0.5153716216216216</v>
       </c>
       <c r="AB51">
-        <v>0.4651442307692308</v>
+        <v>0.4316489361702128</v>
       </c>
       <c r="AC51">
-        <v>0.75</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="AD51">
-        <v>0.854703661139386</v>
+        <v>0.8105030053780449</v>
       </c>
       <c r="AE51">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AF51">
-        <v>0.5421245421245421</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="AG51">
-        <v>0.2045454545454546</v>
+        <v>0.25</v>
       </c>
       <c r="AH51">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6592,88 +6592,88 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.477124183006536</v>
+        <v>0.4622222222222222</v>
       </c>
       <c r="I52">
-        <v>0.4306569343065693</v>
+        <v>0.4434389140271493</v>
       </c>
       <c r="J52">
-        <v>0.5559919922027864</v>
+        <v>0.6192938892979524</v>
       </c>
       <c r="K52">
-        <v>0.7207672942831648</v>
+        <v>0.5638625201899947</v>
       </c>
       <c r="L52">
-        <v>0.8484596169858453</v>
+        <v>0.8150879183210438</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0.1810897435897436</v>
+        <v>0.1946808510638298</v>
       </c>
       <c r="O52">
-        <v>0.7017543859649124</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="P52">
-        <v>0.839969785259523</v>
+        <v>0.8558316189270454</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R52">
-        <v>0.5373831775700936</v>
+        <v>0.6036036036036037</v>
       </c>
       <c r="S52">
-        <v>0.1818181818181818</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T52">
-        <v>0.2608695652173913</v>
+        <v>0.3</v>
       </c>
       <c r="U52">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V52">
-        <v>0.359375</v>
+        <v>0.4189189189189189</v>
       </c>
       <c r="W52">
-        <v>0.4942528735632184</v>
+        <v>0.4654088050314465</v>
       </c>
       <c r="X52">
-        <v>0.6179892639956807</v>
+        <v>0.5911902737717093</v>
       </c>
       <c r="Y52">
-        <v>0.1099146316117218</v>
+        <v>0.2568696450389361</v>
       </c>
       <c r="Z52">
-        <v>0.4565217391304348</v>
+        <v>0.6954989154013016</v>
       </c>
       <c r="AA52">
-        <v>0.5084745762711864</v>
+        <v>0.7266891891891892</v>
       </c>
       <c r="AB52">
-        <v>0.2716346153846154</v>
+        <v>0.2920212765957447</v>
       </c>
       <c r="AC52">
-        <v>0.3214285714285714</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="AD52">
-        <v>0.4399934329338368</v>
+        <v>0.8107402720658019</v>
       </c>
       <c r="AE52">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF52">
-        <v>0.2930402930402931</v>
+        <v>1</v>
       </c>
       <c r="AG52">
-        <v>0.4090909090909091</v>
+        <v>0.7</v>
       </c>
       <c r="AH52">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AJ52">
         <v>0.1886792452830189</v>
@@ -6705,88 +6705,88 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0.3937007874015748</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="I53">
-        <v>0.3577981651376147</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="J53">
-        <v>0.1169200554512738</v>
+        <v>0.2279410960398147</v>
       </c>
       <c r="K53">
-        <v>0.2399087161780068</v>
+        <v>0.09619603720345177</v>
       </c>
       <c r="L53">
-        <v>0.5395503746877602</v>
+        <v>0.4980147475893364</v>
       </c>
       <c r="M53">
-        <v>0.4448123620309051</v>
+        <v>0.4712918660287082</v>
       </c>
       <c r="N53">
-        <v>0.3926282051282052</v>
+        <v>0.3053191489361702</v>
       </c>
       <c r="O53">
-        <v>0.3508771929824562</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="P53">
-        <v>0.7499730225531456</v>
+        <v>0.7673682544706441</v>
       </c>
       <c r="Q53">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>0.6074766355140188</v>
+        <v>0.4804804804804805</v>
       </c>
       <c r="S53">
-        <v>0.2727272727272728</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="T53">
-        <v>0.3913043478260869</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53">
-        <v>0.4313725490196079</v>
+        <v>0.4248927038626609</v>
       </c>
       <c r="W53">
-        <v>0.3900709219858156</v>
+        <v>0.3596059113300493</v>
       </c>
       <c r="X53">
-        <v>0.3742507151667052</v>
+        <v>0.1797639166303289</v>
       </c>
       <c r="Y53">
-        <v>0.5742621463010029</v>
+        <v>0.4897445258828523</v>
       </c>
       <c r="Z53">
-        <v>0.7254901960784315</v>
+        <v>0.6513015184381779</v>
       </c>
       <c r="AA53">
-        <v>0.6398305084745762</v>
+        <v>0.597972972972973</v>
       </c>
       <c r="AB53">
-        <v>0.3926282051282052</v>
+        <v>0.3053191489361702</v>
       </c>
       <c r="AC53">
-        <v>0.6428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="AD53">
-        <v>0.8615990806107372</v>
+        <v>0.9746915533059157</v>
       </c>
       <c r="AE53">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AF53">
-        <v>0.5763125763125764</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="AG53">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AH53">
-        <v>0.4399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AI53">
-        <v>0.1428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AJ53">
         <v>0.05660377358490566</v>
@@ -6818,88 +6818,88 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0.319672131147541</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="I54">
-        <v>0.5204081632653061</v>
+        <v>0.6033057851239669</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>-0.1215412667520541</v>
+        <v>0.07302489146568096</v>
       </c>
       <c r="L54">
-        <v>0.5212323064113239</v>
+        <v>0.504254112308565</v>
       </c>
       <c r="M54">
-        <v>0.5066225165562914</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="N54">
-        <v>0.2676282051282051</v>
+        <v>0.3372340425531915</v>
       </c>
       <c r="O54">
-        <v>0.1403508771929824</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="P54">
-        <v>0.8030646379626631</v>
+        <v>0.8561481247032757</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R54">
-        <v>0.2990654205607476</v>
+        <v>0.2822822822822822</v>
       </c>
       <c r="S54">
-        <v>0.1818181818181818</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T54">
-        <v>0.3478260869565217</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0.5620437956204379</v>
+        <v>0.5679611650485437</v>
       </c>
       <c r="W54">
-        <v>0.4356435643564356</v>
+        <v>0.422360248447205</v>
       </c>
       <c r="X54">
-        <v>0.4086121769945603</v>
+        <v>0.4239676072195469</v>
       </c>
       <c r="Y54">
-        <v>0.9544675482763706</v>
+        <v>0.9393025119223292</v>
       </c>
       <c r="Z54">
-        <v>0.9036658141517476</v>
+        <v>0.8139913232104121</v>
       </c>
       <c r="AA54">
-        <v>0.5858050847457628</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.2676282051282051</v>
+        <v>0.3372340425531915</v>
       </c>
       <c r="AC54">
-        <v>0.7142857142857143</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="AD54">
-        <v>0.9250807201882559</v>
+        <v>0.9707371085099652</v>
       </c>
       <c r="AE54">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AF54">
-        <v>0.336996336996337</v>
+        <v>0.3765432098765432</v>
       </c>
       <c r="AG54">
-        <v>0.6363636363636365</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AH54">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="AI54">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AJ54">
         <v>0.5471698113207547</v>
@@ -6931,88 +6931,88 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.5371900826446281</v>
+        <v>0.5418994413407822</v>
       </c>
       <c r="I55">
-        <v>0.3361344537815126</v>
+        <v>0.3352272727272727</v>
       </c>
       <c r="J55">
-        <v>-0.2095066211395312</v>
+        <v>-0.1085286978923356</v>
       </c>
       <c r="K55">
-        <v>0.4057886717331155</v>
+        <v>0.5598058330232251</v>
       </c>
       <c r="L55">
-        <v>0.7568692756036637</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="M55">
-        <v>0.6975717439293598</v>
+        <v>0.7432216905901117</v>
       </c>
       <c r="N55">
-        <v>0.4439102564102564</v>
+        <v>0.5351063829787234</v>
       </c>
       <c r="O55">
-        <v>0.4912280701754386</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="P55">
-        <v>0.7419876982842344</v>
+        <v>0.8170596613388194</v>
       </c>
       <c r="Q55">
-        <v>0.8750000000000001</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R55">
-        <v>0.6822429906542056</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="S55">
-        <v>0.2727272727272728</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="T55">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0.4489795918367347</v>
+        <v>0.4229249011857708</v>
       </c>
       <c r="W55">
-        <v>0.398876404494382</v>
+        <v>0.4364406779661017</v>
       </c>
       <c r="X55">
-        <v>0.2851009419800756</v>
+        <v>0.4959497820611015</v>
       </c>
       <c r="Y55">
-        <v>0.4188292039017149</v>
+        <v>0.3214289436437306</v>
       </c>
       <c r="Z55">
-        <v>0.7071611253196931</v>
+        <v>0.5848698481561823</v>
       </c>
       <c r="AA55">
-        <v>0.4107521186440678</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="AB55">
-        <v>0.3329326923076923</v>
+        <v>0.4013297872340426</v>
       </c>
       <c r="AC55">
-        <v>0.375</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <v>0.9341189496994621</v>
       </c>
       <c r="AE55">
-        <v>0.75</v>
+        <v>0.525</v>
       </c>
       <c r="AF55">
-        <v>0.7106227106227107</v>
+        <v>0.5995370370370371</v>
       </c>
       <c r="AG55">
-        <v>0.2727272727272728</v>
+        <v>0.4</v>
       </c>
       <c r="AH55">
-        <v>0.39</v>
+        <v>0.425</v>
       </c>
       <c r="AI55">
-        <v>0.1071428571428571</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AJ55">
         <v>0.03773584905660377</v>
